--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26918"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFA463-5B2A-49BD-BF4F-D75B764F4C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2744A60D-2385-41F4-8C22-152B15E46B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t>Dash components</t>
   </si>
@@ -530,12 +530,35 @@
   <si>
     <t>Mise en forme des cellules : largeur des colonnes, pointillés en fin de phrase si longueur &gt; taille de la cellule, lignes / colonnes figées, barre de déroulement…</t>
   </si>
+  <si>
+    <t>indexE007_Height
+indexE007_Styling</t>
+  </si>
+  <si>
+    <t>Pagination de la datatable selon 3 situations (fichier indexE007_Height)
+Style de la datatable avec dans certaines situations application de conditions (fichier indexE007_Styling)</t>
+  </si>
+  <si>
+    <t>MAJ du graphique selon la cellule sélectionnée dans la datatable : 
+récupération des données de la cellule sélectionnée</t>
+  </si>
+  <si>
+    <t>IndexE008_ActiveCells</t>
+  </si>
+  <si>
+    <t>IndexE009_Filter
+indexE009_Hide</t>
+  </si>
+  <si>
+    <t>Le fichier IndexE009_Filter permet d'effectuer plusieurs filtres sur la datable à partir de divers menus déroulants et de barres de progression (sliders)
+Le fichier indexE009_Hide permet d'afficher certaines colonnes en fonction de la taille de l'ordinateur -&gt; peut être une utilité pour l'affichage des données sur un téléphone portable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +582,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -831,10 +862,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,6 +910,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -905,8 +958,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1242,8 +1299,8 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,7 +1308,7 @@
     <col min="1" max="1" width="11.5546875" style="7"/>
     <col min="2" max="2" width="64" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="87.21875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="87.21875" style="21" customWidth="1"/>
     <col min="5" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
@@ -1265,12 +1322,12 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1279,104 +1336,104 @@
       <c r="C2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1388,173 +1445,173 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1563,60 +1620,60 @@
       <c r="C34" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1627,114 +1684,126 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+      <c r="C40" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
+      <c r="C41" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="24"/>
       <c r="B42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="22" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="8"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="8"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="8"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="17"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="22" t="s">
         <v>112</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -1743,315 +1812,315 @@
       <c r="C53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="8"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="8"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="8"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="8"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66" s="8"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="17"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="12"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="22" t="s">
         <v>113</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="8"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="8"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="8"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="8"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="8"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="23"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="12"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="22" t="s">
         <v>114</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="8"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="9"/>
-      <c r="D80" s="8"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="9"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="17"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="22" t="s">
         <v>115</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="8"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="8"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="18"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="8"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="18"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="8"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="18"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C88" s="9"/>
-      <c r="D88" s="8"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="18"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C89" s="9"/>
-      <c r="D89" s="8"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="19"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C90" s="11"/>
-      <c r="D90" s="10"/>
+      <c r="D90" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D90" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
@@ -2065,6 +2134,10 @@
     <mergeCell ref="A53:A68"/>
     <mergeCell ref="A69:A77"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
+    <hyperlink ref="C42" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2744A60D-2385-41F4-8C22-152B15E46B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600B727D-9F9D-4C7B-97AC-82D70E752813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CharmingData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
   <si>
     <t>Dash components</t>
   </si>
   <si>
     <t>Dropdown Selector- Python Dash Plotly</t>
-  </si>
-  <si>
-    <t>Before After Image Slider - Dash Component</t>
   </si>
   <si>
     <t>Index</t>
@@ -552,6 +549,13 @@
   <si>
     <t>Le fichier IndexE009_Filter permet d'effectuer plusieurs filtres sur la datable à partir de divers menus déroulants et de barres de progression (sliders)
 Le fichier indexE009_Hide permet d'afficher certaines colonnes en fonction de la taille de l'ordinateur -&gt; peut être une utilité pour l'affichage des données sur un téléphone portable</t>
+  </si>
+  <si>
+    <t>Dans ce cours on utilise le composant dcc.Interval qui permet de mettre à jour les données qu'on pourrait éventuellement récupérer dans différents sites @ à partir des API.
+On a recours également à la sous-librairie dash.exceptions qui lève une exception lors de la MAJ des données</t>
+  </si>
+  <si>
+    <t>indexC012_Interval</t>
   </si>
 </sst>
 </file>
@@ -931,6 +935,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -957,9 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1296,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,42 +1318,46 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>108</v>
+      <c r="A2" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="14"/>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1357,11 +1365,11 @@
         <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1369,23 +1377,23 @@
         <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1401,7 @@
       <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1409,7 @@
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1417,7 @@
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1417,35 +1425,35 @@
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="C12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1461,7 @@
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1461,7 +1469,7 @@
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1469,7 +1477,7 @@
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1485,7 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1485,61 +1493,61 @@
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="29"/>
-      <c r="B21" s="10" t="s">
+      <c r="C20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1555,7 @@
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
@@ -1555,7 +1563,7 @@
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
@@ -1563,7 +1571,7 @@
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
@@ -1571,7 +1579,7 @@
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
@@ -1579,7 +1587,7 @@
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
@@ -1587,151 +1595,151 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="25"/>
+      <c r="B32" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="24"/>
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>123</v>
+      <c r="C39" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>126</v>
+      <c r="C40" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="12" t="s">
+      <c r="D41" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
@@ -1739,7 +1747,7 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1755,7 @@
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
@@ -1755,7 +1763,7 @@
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -1763,7 +1771,7 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
@@ -1771,7 +1779,7 @@
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="8" t="s">
         <v>37</v>
       </c>
@@ -1779,57 +1787,57 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="14"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="25"/>
+      <c r="B51" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>105</v>
+      <c r="C53" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="8" t="s">
         <v>53</v>
       </c>
@@ -1837,7 +1845,7 @@
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1853,7 @@
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
@@ -1853,7 +1861,7 @@
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
@@ -1861,23 +1869,23 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="8" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="8" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
@@ -1885,7 +1893,7 @@
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
@@ -1893,7 +1901,7 @@
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
@@ -1901,7 +1909,7 @@
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="8" t="s">
         <v>61</v>
       </c>
@@ -1909,7 +1917,7 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="8" t="s">
         <v>62</v>
       </c>
@@ -1917,41 +1925,41 @@
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="14"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="25"/>
+      <c r="B67" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="14"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="24"/>
-      <c r="B68" s="12" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="20"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="8" t="s">
         <v>67</v>
       </c>
@@ -1959,7 +1967,7 @@
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="8" t="s">
         <v>68</v>
       </c>
@@ -1967,7 +1975,7 @@
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="8" t="s">
         <v>69</v>
       </c>
@@ -1975,7 +1983,7 @@
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="8" t="s">
         <v>70</v>
       </c>
@@ -1983,7 +1991,7 @@
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="8" t="s">
         <v>71</v>
       </c>
@@ -1991,41 +1999,41 @@
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="14"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="8" t="s">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="31"/>
+      <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="30"/>
-      <c r="B77" s="12" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="20"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="18"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="8" t="s">
         <v>76</v>
       </c>
@@ -2033,41 +2041,41 @@
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="14"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="23"/>
-      <c r="B81" s="8" t="s">
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="25"/>
+      <c r="B81" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="24"/>
-      <c r="B82" s="12" t="s">
+      <c r="C81" s="13"/>
+      <c r="D81" s="20"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="20"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="26"/>
+      <c r="B83" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="18"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
@@ -2075,7 +2083,7 @@
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="8" t="s">
         <v>82</v>
       </c>
@@ -2083,7 +2091,7 @@
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="8" t="s">
         <v>83</v>
       </c>
@@ -2091,7 +2099,7 @@
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="8" t="s">
         <v>84</v>
       </c>
@@ -2099,44 +2107,36 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="8" t="s">
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="27"/>
+      <c r="B89" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="14"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="26"/>
-      <c r="B90" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="19"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D90" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
+  <autoFilter ref="A1:D89" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A68"/>
-    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A52:A67"/>
+    <mergeCell ref="A68:A76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
-    <hyperlink ref="C42" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
+    <hyperlink ref="C41" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600B727D-9F9D-4C7B-97AC-82D70E752813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92155D-779A-4669-A642-876B086D1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>Dash components</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>indexC012_Interval</t>
+  </si>
+  <si>
+    <t>indexC013_CheckList</t>
+  </si>
+  <si>
+    <t>Dans ce cours on a recours aux cases à cocher qui permettent de mettre à jour un graphique</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1310,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,8 +1403,12 @@
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26918"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A92155D-779A-4669-A642-876B086D1730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E13672-F59E-4B05-9F31-FED8D23129F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
   <si>
     <t>Dash components</t>
   </si>
@@ -562,6 +562,13 @@
   </si>
   <si>
     <t>Dans ce cours on a recours aux cases à cocher qui permettent de mettre à jour un graphique</t>
+  </si>
+  <si>
+    <t>indexC014_InputBox
+indexC015_InputBox</t>
+  </si>
+  <si>
+    <t>Toutes les fonctionnalités de la zone de saisie, dont MAJ d'un graphique à partir de ces zones de saisie</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,13 +1417,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E13672-F59E-4B05-9F31-FED8D23129F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F3F09-3A52-40F6-B246-07BCADFF781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
   <si>
     <t>Dash components</t>
   </si>
@@ -569,6 +569,12 @@
   </si>
   <si>
     <t>Toutes les fonctionnalités de la zone de saisie, dont MAJ d'un graphique à partir de ces zones de saisie</t>
+  </si>
+  <si>
+    <t>Dans ce cours on apprend à utiliser un calendrier avec date début / date fin</t>
+  </si>
+  <si>
+    <t>indexC016_DatePicker</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,8 +1440,12 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
@@ -2158,6 +2168,7 @@
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
     <hyperlink ref="C41" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8F3F09-3A52-40F6-B246-07BCADFF781E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95B2E5-2363-440F-9E91-CE09615D8352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
   <si>
     <t>Dash components</t>
   </si>
@@ -333,15 +333,6 @@
   </si>
   <si>
     <t>Objet du cours</t>
-  </si>
-  <si>
-    <t>Composant : menu déroulant</t>
-  </si>
-  <si>
-    <t>Composant : graphique</t>
-  </si>
-  <si>
-    <t>Composant  : curseur</t>
   </si>
   <si>
     <t>Lien datatable avec un menu déroulant</t>
@@ -501,9 +492,6 @@
     <t>indexC010_Upload</t>
   </si>
   <si>
-    <t>Composant : chargement des fichiers avec génération automatique des données dans une datatable et MAJ d'un graphique avec des menus déroulants</t>
-  </si>
-  <si>
     <t>indexC011_Button</t>
   </si>
   <si>
@@ -520,9 +508,6 @@
   </si>
   <si>
     <t>indexE006_Cells</t>
-  </si>
-  <si>
-    <t>Composant : bouton</t>
   </si>
   <si>
     <t>Mise en forme des cellules : largeur des colonnes, pointillés en fin de phrase si longueur &gt; taille de la cellule, lignes / colonnes figées, barre de déroulement…</t>
@@ -551,30 +536,52 @@
 Le fichier indexE009_Hide permet d'afficher certaines colonnes en fonction de la taille de l'ordinateur -&gt; peut être une utilité pour l'affichage des données sur un téléphone portable</t>
   </si>
   <si>
-    <t>Dans ce cours on utilise le composant dcc.Interval qui permet de mettre à jour les données qu'on pourrait éventuellement récupérer dans différents sites @ à partir des API.
-On a recours également à la sous-librairie dash.exceptions qui lève une exception lors de la MAJ des données</t>
-  </si>
-  <si>
     <t>indexC012_Interval</t>
   </si>
   <si>
     <t>indexC013_CheckList</t>
-  </si>
-  <si>
-    <t>Dans ce cours on a recours aux cases à cocher qui permettent de mettre à jour un graphique</t>
   </si>
   <si>
     <t>indexC014_InputBox
 indexC015_InputBox</t>
   </si>
   <si>
-    <t>Toutes les fonctionnalités de la zone de saisie, dont MAJ d'un graphique à partir de ces zones de saisie</t>
-  </si>
-  <si>
-    <t>Dans ce cours on apprend à utiliser un calendrier avec date début / date fin</t>
-  </si>
-  <si>
     <t>indexC016_DatePicker</t>
+  </si>
+  <si>
+    <t>Calendrier avec date début / date fin</t>
+  </si>
+  <si>
+    <t>Zone de saisie : toutes les fonctionnalités, dont MAJ d'un graphique à partir de ces zones de saisie</t>
+  </si>
+  <si>
+    <t>Cases à cocher qui permettent de mettre à jour un graphique</t>
+  </si>
+  <si>
+    <t>Composant dcc.Interval qui permet de mettre à jour les données qu'on pourrait éventuellement récupérer dans différents sites @ à partir des API.
+Sous-librairie dash.exceptions qui lève une exception lors de la MAJ des données</t>
+  </si>
+  <si>
+    <t>Curseur</t>
+  </si>
+  <si>
+    <t>Graphique</t>
+  </si>
+  <si>
+    <t>Menu déroulant</t>
+  </si>
+  <si>
+    <t>Chargement des fichiers avec génération automatique des données dans une datatable et MAJ d'un graphique avec des menus déroulants</t>
+  </si>
+  <si>
+    <t>Bouton</t>
+  </si>
+  <si>
+    <t>Téléchargement des données : dans ce cours on apprend à télécharger les données à partir du composant download,et également la mise en forme du bouton de téléchargement des données en insérant
+un icône à partir d'un site @</t>
+  </si>
+  <si>
+    <t>indexC017_Download</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1358,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1360,7 +1367,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1379,7 @@
         <v>88</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,7 +1391,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,19 +1403,19 @@
         <v>90</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,10 +1424,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1429,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1441,19 +1448,23 @@
         <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
@@ -1469,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,15 +1548,15 @@
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
@@ -1643,7 +1654,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -1652,7 +1663,7 @@
         <v>94</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1664,7 +1675,7 @@
         <v>92</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1676,7 +1687,7 @@
         <v>95</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,7 +1699,7 @@
         <v>93</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1697,10 +1708,10 @@
         <v>25</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1709,10 +1720,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1721,10 +1732,10 @@
         <v>27</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1733,10 +1744,10 @@
         <v>28</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1745,15 +1756,15 @@
         <v>29</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>30</v>
@@ -1835,7 +1846,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>50</v>
@@ -1844,7 +1855,7 @@
         <v>91</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,10 +1864,10 @@
         <v>51</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1973,7 +1984,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>65</v>
@@ -2047,7 +2058,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>74</v>
@@ -2089,7 +2100,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>79</v>
@@ -2169,6 +2180,7 @@
     <hyperlink ref="C40" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
     <hyperlink ref="C41" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95B2E5-2363-440F-9E91-CE09615D8352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEE2DC-45B9-46B2-B174-9570095E274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
   <si>
     <t>Dash components</t>
   </si>
@@ -582,6 +582,13 @@
   </si>
   <si>
     <t>indexC017_Download</t>
+  </si>
+  <si>
+    <t>indexC018_Markdown</t>
+  </si>
+  <si>
+    <t>Markdown : affichage du texte saisi dans la zone de texte dcc.Textarea
+Différents mis en forme avec mardkown : 'data/Markdown_Ecriture.docx'</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1337,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,13 +1473,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="29"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
@@ -2181,6 +2192,7 @@
     <hyperlink ref="C41" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEE2DC-45B9-46B2-B174-9570095E274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC1C32-98FE-4254-9907-832403BF616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
   <si>
     <t>Dash components</t>
   </si>
@@ -589,6 +589,12 @@
   <si>
     <t>Markdown : affichage du texte saisi dans la zone de texte dcc.Textarea
 Différents mis en forme avec mardkown : 'data/Markdown_Ecriture.docx'</t>
+  </si>
+  <si>
+    <t>indexC019_Carousel</t>
+  </si>
+  <si>
+    <t>Carousel : défilement des images / photos</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1342,8 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1502,8 +1508,12 @@
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
@@ -2193,6 +2203,7 @@
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{9F1877F8-3A7E-4231-9A84-551112140EBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BC1C32-98FE-4254-9907-832403BF616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAACEC-0EA5-44A7-B645-E014BD0ECC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>Dash components</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>Carousel : défilement des images / photos</t>
+  </si>
+  <si>
+    <t>indexC020_Store</t>
+  </si>
+  <si>
+    <t>dcc.store : dont la taille des données sauvegardées dans ce composant, ainsi que l'intérêt de l'instruction storage_type de ce composant</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1348,8 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,13 +1521,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
@@ -2204,6 +2214,7 @@
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
     <hyperlink ref="C13" r:id="rId6" xr:uid="{9F1877F8-3A7E-4231-9A84-551112140EBC}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{771A3733-4F82-41C1-B6A5-5631EB58E1EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAACEC-0EA5-44A7-B645-E014BD0ECC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A054F0F-DA48-4457-AC5C-4DE1D9DED776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$89</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
     <t>Dash components</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>dcc.store : dont la taille des données sauvegardées dans ce composant, ainsi que l'intérêt de l'instruction storage_type de ce composant</t>
+  </si>
+  <si>
+    <t>indexC021_Cytoscape</t>
+  </si>
+  <si>
+    <t>Organigramme</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1354,8 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,8 +1544,12 @@
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -2215,6 +2225,7 @@
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
     <hyperlink ref="C13" r:id="rId6" xr:uid="{9F1877F8-3A7E-4231-9A84-551112140EBC}"/>
     <hyperlink ref="C14" r:id="rId7" xr:uid="{771A3733-4F82-41C1-B6A5-5631EB58E1EA}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{E58D438E-281D-47B1-965C-E482BFE50BB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A054F0F-DA48-4457-AC5C-4DE1D9DED776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A538BDE-5697-4DA3-986D-F3A63A704C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>Dash components</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>Organigramme</t>
+  </si>
+  <si>
+    <t>indexC022_Cytoscape</t>
+  </si>
+  <si>
+    <t>Organigramme avec MAJ du graphique selon le nœud sélectionné dans l'organigramme</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1361,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,8 +1562,12 @@
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
@@ -2226,6 +2236,7 @@
     <hyperlink ref="C13" r:id="rId6" xr:uid="{9F1877F8-3A7E-4231-9A84-551112140EBC}"/>
     <hyperlink ref="C14" r:id="rId7" xr:uid="{771A3733-4F82-41C1-B6A5-5631EB58E1EA}"/>
     <hyperlink ref="C15" r:id="rId8" xr:uid="{E58D438E-281D-47B1-965C-E482BFE50BB9}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{9994B34D-0085-4EE7-A9B2-239D8A2E58C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A538BDE-5697-4DA3-986D-F3A63A704C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5013A2FD-E94B-4655-B195-01EA3A40407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t>Dash components</t>
   </si>
@@ -613,6 +613,17 @@
   </si>
   <si>
     <t>Organigramme avec MAJ du graphique selon le nœud sélectionné dans l'organigramme</t>
+  </si>
+  <si>
+    <t>indexC023_Cytoscape</t>
+  </si>
+  <si>
+    <t>Complément de cours sur le cytoscape : une des barres du diagramme en barres change
+de couleur selon le noeud sélectionné dans l'organigramme (cytoscape)
+Concernant le layout de ce composant (configuration du composant sur la page @),
+on utilise le paramètre 'preset' : layout={'name': 'preset'}, 
+L'intérêt de ce paramètre, est qu'on peut personnaliser la position des noeuds
+du cytoscape dans la page @</t>
   </si>
 </sst>
 </file>
@@ -927,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1361,7 +1375,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,13 +1583,17 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
@@ -2237,6 +2255,7 @@
     <hyperlink ref="C14" r:id="rId7" xr:uid="{771A3733-4F82-41C1-B6A5-5631EB58E1EA}"/>
     <hyperlink ref="C15" r:id="rId8" xr:uid="{E58D438E-281D-47B1-965C-E482BFE50BB9}"/>
     <hyperlink ref="C16" r:id="rId9" xr:uid="{9994B34D-0085-4EE7-A9B2-239D8A2E58C6}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{0336CED1-6E48-44B4-873B-EC891838C2B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5013A2FD-E94B-4655-B195-01EA3A40407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1857B-7DB0-4A65-9B33-2CD51B75CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
   <si>
     <t>Dash components</t>
   </si>
@@ -624,6 +624,14 @@
 on utilise le paramètre 'preset' : layout={'name': 'preset'}, 
 L'intérêt de ce paramètre, est qu'on peut personnaliser la position des noeuds
 du cytoscape dans la page @</t>
+  </si>
+  <si>
+    <t>indexC024_Canvas</t>
+  </si>
+  <si>
+    <t>Insertion de boutons supplémentaires dans un composant
+DashCanvas : équivalent à Paint
+Insertion d'images</t>
   </si>
 </sst>
 </file>
@@ -1006,6 +1014,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1032,9 +1043,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1402,7 +1410,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1416,7 +1424,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1436,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1448,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1460,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1464,7 +1472,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1484,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1496,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +1508,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1520,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1532,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1544,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1556,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1568,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1572,7 +1580,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1584,27 +1592,31 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="23" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1624,7 @@
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1636,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1634,7 +1646,7 @@
       <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1654,7 @@
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1662,7 @@
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1670,7 @@
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
@@ -1666,7 +1678,7 @@
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
@@ -1674,7 +1686,7 @@
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
@@ -1682,7 +1694,7 @@
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
@@ -1698,7 +1710,7 @@
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
@@ -1706,7 +1718,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
@@ -1714,7 +1726,7 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="12" t="s">
         <v>49</v>
       </c>
@@ -1722,7 +1734,7 @@
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1736,7 +1748,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1748,7 +1760,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1760,7 +1772,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1772,7 +1784,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1796,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1808,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1820,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1820,7 +1832,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="12" t="s">
         <v>29</v>
       </c>
@@ -1832,7 +1844,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1842,7 +1854,7 @@
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
@@ -1850,7 +1862,7 @@
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1870,7 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1878,7 @@
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1886,7 @@
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1894,7 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
@@ -1890,7 +1902,7 @@
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="8" t="s">
         <v>37</v>
       </c>
@@ -1898,7 +1910,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
@@ -1906,7 +1918,7 @@
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="25"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="12" t="s">
         <v>39</v>
       </c>
@@ -1914,7 +1926,7 @@
       <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1928,7 +1940,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
@@ -1940,7 +1952,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="8" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1960,7 @@
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="8" t="s">
         <v>53</v>
       </c>
@@ -1956,7 +1968,7 @@
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
@@ -1964,7 +1976,7 @@
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +1984,7 @@
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
@@ -1980,7 +1992,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="24"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="8" t="s">
         <v>17</v>
       </c>
@@ -1988,7 +2000,7 @@
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="24"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="8" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +2008,7 @@
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="24"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
@@ -2004,7 +2016,7 @@
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="24"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
@@ -2012,7 +2024,7 @@
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
@@ -2020,7 +2032,7 @@
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="24"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>61</v>
       </c>
@@ -2028,7 +2040,7 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="8" t="s">
         <v>62</v>
       </c>
@@ -2036,7 +2048,7 @@
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="24"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
@@ -2044,7 +2056,7 @@
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="25"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="12" t="s">
         <v>64</v>
       </c>
@@ -2052,7 +2064,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2062,7 +2074,7 @@
       <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="8" t="s">
         <v>66</v>
       </c>
@@ -2070,7 +2082,7 @@
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="8" t="s">
         <v>67</v>
       </c>
@@ -2078,7 +2090,7 @@
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="8" t="s">
         <v>68</v>
       </c>
@@ -2086,7 +2098,7 @@
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="8" t="s">
         <v>69</v>
       </c>
@@ -2094,7 +2106,7 @@
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="8" t="s">
         <v>70</v>
       </c>
@@ -2102,7 +2114,7 @@
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="8" t="s">
         <v>71</v>
       </c>
@@ -2110,7 +2122,7 @@
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="8" t="s">
         <v>72</v>
       </c>
@@ -2118,7 +2130,7 @@
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="31"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
@@ -2126,7 +2138,7 @@
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2136,7 +2148,7 @@
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="8" t="s">
         <v>75</v>
       </c>
@@ -2144,7 +2156,7 @@
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="24"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="8" t="s">
         <v>76</v>
       </c>
@@ -2152,7 +2164,7 @@
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="24"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="8" t="s">
         <v>77</v>
       </c>
@@ -2160,7 +2172,7 @@
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="25"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="12" t="s">
         <v>78</v>
       </c>
@@ -2168,7 +2180,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -2178,7 +2190,7 @@
       <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="8" t="s">
         <v>80</v>
       </c>
@@ -2186,7 +2198,7 @@
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
@@ -2194,7 +2206,7 @@
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="8" t="s">
         <v>82</v>
       </c>
@@ -2202,7 +2214,7 @@
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="8" t="s">
         <v>83</v>
       </c>
@@ -2210,7 +2222,7 @@
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="26"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="8" t="s">
         <v>84</v>
       </c>
@@ -2218,7 +2230,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
@@ -2226,7 +2238,7 @@
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="27"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="10" t="s">
         <v>86</v>
       </c>
@@ -2256,6 +2268,7 @@
     <hyperlink ref="C15" r:id="rId8" xr:uid="{E58D438E-281D-47B1-965C-E482BFE50BB9}"/>
     <hyperlink ref="C16" r:id="rId9" xr:uid="{9994B34D-0085-4EE7-A9B2-239D8A2E58C6}"/>
     <hyperlink ref="C17" r:id="rId10" xr:uid="{0336CED1-6E48-44B4-873B-EC891838C2B5}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{E6D6697F-1BBE-4733-9C3B-29884354A6EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1857B-7DB0-4A65-9B33-2CD51B75CE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFB8E1-D124-4431-8E38-D233CCACA76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>Dash components</t>
   </si>
@@ -632,6 +632,12 @@
     <t>Insertion de boutons supplémentaires dans un composant
 DashCanvas : équivalent à Paint
 Insertion d'images</t>
+  </si>
+  <si>
+    <t>Slider et RangeSlider</t>
+  </si>
+  <si>
+    <t>indexC025_Slider</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1388,8 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,8 +1626,12 @@
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31"/>
@@ -2269,6 +2279,7 @@
     <hyperlink ref="C16" r:id="rId9" xr:uid="{9994B34D-0085-4EE7-A9B2-239D8A2E58C6}"/>
     <hyperlink ref="C17" r:id="rId10" xr:uid="{0336CED1-6E48-44B4-873B-EC891838C2B5}"/>
     <hyperlink ref="C18" r:id="rId11" xr:uid="{E6D6697F-1BBE-4733-9C3B-29884354A6EF}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{507C5B2E-BB1A-4A90-B8D7-ABAE452C9498}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFB8E1-D124-4431-8E38-D233CCACA76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF81AA4-2E43-40D1-9F59-9D3F74432F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="159">
   <si>
     <t>Dash components</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>indexC025_Slider</t>
+  </si>
+  <si>
+    <t>IndexD001_PieChart</t>
+  </si>
+  <si>
+    <t>Camembert : MAJ du graphique à partir d'un menu déroulant</t>
   </si>
 </sst>
 </file>
@@ -952,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1049,6 +1055,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1388,8 +1397,8 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,8 +1661,12 @@
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
@@ -2280,6 +2293,7 @@
     <hyperlink ref="C17" r:id="rId10" xr:uid="{0336CED1-6E48-44B4-873B-EC891838C2B5}"/>
     <hyperlink ref="C18" r:id="rId11" xr:uid="{E6D6697F-1BBE-4733-9C3B-29884354A6EF}"/>
     <hyperlink ref="C19" r:id="rId12" xr:uid="{507C5B2E-BB1A-4A90-B8D7-ABAE452C9498}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{292606D7-0E58-4B76-8F50-4FBDC5151440}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27005"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF81AA4-2E43-40D1-9F59-9D3F74432F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD05B0B-582D-4690-9F1D-3627527A7EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>Dash components</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>Camembert : MAJ du graphique à partir d'un menu déroulant</t>
+  </si>
+  <si>
+    <t>indexD002_LineChart</t>
+  </si>
+  <si>
+    <t>Graphique linéaire : MAJ du camembert selon les attributs du graphique linéaire</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1035,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1055,9 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1398,7 +1404,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1425,7 +1431,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1439,7 +1445,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1451,7 +1457,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1469,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1481,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1487,7 +1493,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1499,7 +1505,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1517,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1529,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1541,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1547,7 +1553,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1559,7 +1565,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +1589,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1601,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +1613,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1625,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1631,7 +1637,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1643,7 +1649,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1655,13 +1661,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -1669,15 +1675,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1695,7 @@
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +1703,7 @@
       <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
@@ -1701,7 +1711,7 @@
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
@@ -1709,7 +1719,7 @@
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
@@ -1717,7 +1727,7 @@
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
@@ -1725,7 +1735,7 @@
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
@@ -1733,7 +1743,7 @@
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="8" t="s">
         <v>47</v>
       </c>
@@ -1741,7 +1751,7 @@
       <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
@@ -1749,7 +1759,7 @@
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="12" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1767,7 @@
       <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1771,7 +1781,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +1793,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1805,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1807,7 +1817,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1829,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
@@ -1831,7 +1841,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1843,7 +1853,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1855,7 +1865,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="12" t="s">
         <v>29</v>
       </c>
@@ -1867,7 +1877,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1877,7 +1887,7 @@
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="8" t="s">
         <v>31</v>
       </c>
@@ -1885,7 +1895,7 @@
       <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="8" t="s">
         <v>32</v>
       </c>
@@ -1893,7 +1903,7 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +1911,7 @@
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
@@ -1909,7 +1919,7 @@
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1927,7 @@
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1935,7 @@
       <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="8" t="s">
         <v>37</v>
       </c>
@@ -1933,7 +1943,7 @@
       <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +1951,7 @@
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="12" t="s">
         <v>39</v>
       </c>
@@ -1949,7 +1959,7 @@
       <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1963,7 +1973,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
@@ -1975,7 +1985,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="8" t="s">
         <v>52</v>
       </c>
@@ -1983,7 +1993,7 @@
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="8" t="s">
         <v>53</v>
       </c>
@@ -1991,7 +2001,7 @@
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
@@ -1999,7 +2009,7 @@
       <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
@@ -2007,7 +2017,7 @@
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
@@ -2015,7 +2025,7 @@
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="8" t="s">
         <v>17</v>
       </c>
@@ -2023,7 +2033,7 @@
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="8" t="s">
         <v>57</v>
       </c>
@@ -2031,7 +2041,7 @@
       <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
@@ -2039,7 +2049,7 @@
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
@@ -2047,7 +2057,7 @@
       <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
@@ -2055,7 +2065,7 @@
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="8" t="s">
         <v>61</v>
       </c>
@@ -2063,7 +2073,7 @@
       <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="8" t="s">
         <v>62</v>
       </c>
@@ -2071,7 +2081,7 @@
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
@@ -2079,7 +2089,7 @@
       <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="26"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="12" t="s">
         <v>64</v>
       </c>
@@ -2087,7 +2097,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2097,7 +2107,7 @@
       <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="8" t="s">
         <v>66</v>
       </c>
@@ -2105,7 +2115,7 @@
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="8" t="s">
         <v>67</v>
       </c>
@@ -2113,7 +2123,7 @@
       <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="8" t="s">
         <v>68</v>
       </c>
@@ -2121,7 +2131,7 @@
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="8" t="s">
         <v>69</v>
       </c>
@@ -2129,7 +2139,7 @@
       <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="27"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="8" t="s">
         <v>70</v>
       </c>
@@ -2137,7 +2147,7 @@
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="8" t="s">
         <v>71</v>
       </c>
@@ -2145,7 +2155,7 @@
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="8" t="s">
         <v>72</v>
       </c>
@@ -2153,7 +2163,7 @@
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="32"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
@@ -2161,7 +2171,7 @@
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2171,7 +2181,7 @@
       <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="8" t="s">
         <v>75</v>
       </c>
@@ -2179,7 +2189,7 @@
       <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="8" t="s">
         <v>76</v>
       </c>
@@ -2187,7 +2197,7 @@
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="25"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="8" t="s">
         <v>77</v>
       </c>
@@ -2195,7 +2205,7 @@
       <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="26"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="12" t="s">
         <v>78</v>
       </c>
@@ -2203,7 +2213,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -2213,7 +2223,7 @@
       <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="8" t="s">
         <v>80</v>
       </c>
@@ -2221,7 +2231,7 @@
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
@@ -2229,7 +2239,7 @@
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="8" t="s">
         <v>82</v>
       </c>
@@ -2237,7 +2247,7 @@
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="27"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="8" t="s">
         <v>83</v>
       </c>
@@ -2245,7 +2255,7 @@
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="8" t="s">
         <v>84</v>
       </c>
@@ -2253,7 +2263,7 @@
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="27"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="8" t="s">
         <v>85</v>
       </c>
@@ -2261,7 +2271,7 @@
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="28"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="10" t="s">
         <v>86</v>
       </c>
@@ -2294,6 +2304,7 @@
     <hyperlink ref="C18" r:id="rId11" xr:uid="{E6D6697F-1BBE-4733-9C3B-29884354A6EF}"/>
     <hyperlink ref="C19" r:id="rId12" xr:uid="{507C5B2E-BB1A-4A90-B8D7-ABAE452C9498}"/>
     <hyperlink ref="C21" r:id="rId13" xr:uid="{292606D7-0E58-4B76-8F50-4FBDC5151440}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{F89EC98E-BCF1-4377-B1D9-263D1F451492}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD05B0B-582D-4690-9F1D-3627527A7EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAB0F8-DA92-4554-A888-3E4A5B5CFDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="CharmingData" sheetId="1" r:id="rId1"/>
+    <sheet name="Composants" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$D$66</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="262">
   <si>
     <t>Dash components</t>
   </si>
@@ -651,12 +653,315 @@
   <si>
     <t>Graphique linéaire : MAJ du camembert selon les attributs du graphique linéaire</t>
   </si>
+  <si>
+    <t>px.bar</t>
+  </si>
+  <si>
+    <t>indexD003_BarGraph</t>
+  </si>
+  <si>
+    <t>Diagramme en barres : MAJ à partir des boutons d'option</t>
+  </si>
+  <si>
+    <t>dcc.RadioItems</t>
+  </si>
+  <si>
+    <t>dcc.Dropdown</t>
+  </si>
+  <si>
+    <t>px.line</t>
+  </si>
+  <si>
+    <t>px.pie</t>
+  </si>
+  <si>
+    <t>daq.Tank</t>
+  </si>
+  <si>
+    <t>daq.Gauge</t>
+  </si>
+  <si>
+    <t>daq.ToggleSwitch</t>
+  </si>
+  <si>
+    <t>go.Bar</t>
+  </si>
+  <si>
+    <t>dcc.Interval</t>
+  </si>
+  <si>
+    <t>daq.Knob</t>
+  </si>
+  <si>
+    <t>daq.Thermometer</t>
+  </si>
+  <si>
+    <t>daq.LEDDisplay</t>
+  </si>
+  <si>
+    <t>daq.ColorPicker</t>
+  </si>
+  <si>
+    <t>dcc.RangeSlider</t>
+  </si>
+  <si>
+    <t>dcc.Checklist</t>
+  </si>
+  <si>
+    <t>dcc.Input</t>
+  </si>
+  <si>
+    <t>px.choropleth</t>
+  </si>
+  <si>
+    <t>html.P</t>
+  </si>
+  <si>
+    <t>dash_table.DataTable</t>
+  </si>
+  <si>
+    <t>Composant</t>
+  </si>
+  <si>
+    <t>Objet du composant</t>
+  </si>
+  <si>
+    <t>Fichier</t>
+  </si>
+  <si>
+    <t>html.Br</t>
+  </si>
+  <si>
+    <t>Saut de ligne</t>
+  </si>
+  <si>
+    <t>html.H1</t>
+  </si>
+  <si>
+    <t>Titre H1</t>
+  </si>
+  <si>
+    <t>indexB001_Intro</t>
+  </si>
+  <si>
+    <t>html.Label</t>
+  </si>
+  <si>
+    <t>Titre rattaché au composant</t>
+  </si>
+  <si>
+    <t>indexB002_HTML</t>
+  </si>
+  <si>
+    <t>html.H4</t>
+  </si>
+  <si>
+    <t>Titre H4</t>
+  </si>
+  <si>
+    <t>indexB003_Table</t>
+  </si>
+  <si>
+    <t>dcc.Markdown</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>indexB005_MarkDown</t>
+  </si>
+  <si>
+    <t>indexB006_Composants</t>
+  </si>
+  <si>
+    <t>Boutons d'option</t>
+  </si>
+  <si>
+    <t>Cases à cocher</t>
+  </si>
+  <si>
+    <t>Zone de saisie</t>
+  </si>
+  <si>
+    <t>dcc.Slider</t>
+  </si>
+  <si>
+    <t>indexB007_CallBack</t>
+  </si>
+  <si>
+    <t>indexB008_CallBack</t>
+  </si>
+  <si>
+    <t>go.Scatter</t>
+  </si>
+  <si>
+    <t>Nuage de points</t>
+  </si>
+  <si>
+    <t>indexB009_CallBack</t>
+  </si>
+  <si>
+    <t>Thèmes</t>
+  </si>
+  <si>
+    <t>indexB010_CallBack</t>
+  </si>
+  <si>
+    <t>html.Table</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>indexB011_CallBack</t>
+  </si>
+  <si>
+    <t>html.Hr</t>
+  </si>
+  <si>
+    <t>Ligne séparatrice</t>
+  </si>
+  <si>
+    <t>indexC001_Intro</t>
+  </si>
+  <si>
+    <t>Carte géographique</t>
+  </si>
+  <si>
+    <t>Graphique linéaire</t>
+  </si>
+  <si>
+    <t>Camembert</t>
+  </si>
+  <si>
+    <t>IndexC004_DAQ</t>
+  </si>
+  <si>
+    <t>Réservoir</t>
+  </si>
+  <si>
+    <t>Jauge</t>
+  </si>
+  <si>
+    <t>Interrupteur</t>
+  </si>
+  <si>
+    <t>MAJ page @</t>
+  </si>
+  <si>
+    <t>Diagramme en barres</t>
+  </si>
+  <si>
+    <t>IndexC005_DAQ</t>
+  </si>
+  <si>
+    <t>Bouton du four</t>
+  </si>
+  <si>
+    <t>Thermomètre</t>
+  </si>
+  <si>
+    <t>Affichage LED</t>
+  </si>
+  <si>
+    <t>Sélecteur de couleurs</t>
+  </si>
+  <si>
+    <t>Curseur à intervalle</t>
+  </si>
+  <si>
+    <t>dcc.Tabs</t>
+  </si>
+  <si>
+    <t>indexC007_Tabs</t>
+  </si>
+  <si>
+    <t>Onglets</t>
+  </si>
+  <si>
+    <t>dbc.DropdownMenuItem</t>
+  </si>
+  <si>
+    <t>dbc.DropdownMenu</t>
+  </si>
+  <si>
+    <t>dcc.Tab</t>
+  </si>
+  <si>
+    <t>Onglets : mise en place</t>
+  </si>
+  <si>
+    <t>dbc.NavbarSimple</t>
+  </si>
+  <si>
+    <t>indexC008_Tabs</t>
+  </si>
+  <si>
+    <t>indexC009_Tabs</t>
+  </si>
+  <si>
+    <t>dbc.Button</t>
+  </si>
+  <si>
+    <t>Bouton d'exécution</t>
+  </si>
+  <si>
+    <t>dbc.Offcanvas</t>
+  </si>
+  <si>
+    <t>Onglets : Menu de la liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onglets : Menu déroulant </t>
+  </si>
+  <si>
+    <t>dbc.ListGroup</t>
+  </si>
+  <si>
+    <t>dcc.Upload</t>
+  </si>
+  <si>
+    <t>Chargement des fichiers</t>
+  </si>
+  <si>
+    <t>html.H5</t>
+  </si>
+  <si>
+    <t>Titre H5</t>
+  </si>
+  <si>
+    <t>html.H6</t>
+  </si>
+  <si>
+    <t>Titre H6</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>html.Button</t>
+  </si>
+  <si>
+    <t>Datatable</t>
+  </si>
+  <si>
+    <t>dcc.Store</t>
+  </si>
+  <si>
+    <t>Conservation des données</t>
+  </si>
+  <si>
+    <t>html.Pre</t>
+  </si>
+  <si>
+    <t>Texte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,16 +993,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -959,12 +1285,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,27 +1441,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1064,6 +1485,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1400,19 +1852,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="7"/>
     <col min="2" max="2" width="64" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="87.21875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="40" style="7" customWidth="1"/>
+    <col min="4" max="4" width="82.88671875" style="16" customWidth="1"/>
     <col min="5" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
@@ -1426,873 +1880,870 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="38" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="30" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="30" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="30" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="30" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="30" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="31" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="30" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>98</v>
+      <c r="A33" s="21"/>
+      <c r="B33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
+        <v>116</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
       <c r="B37" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
+        <v>118</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
       <c r="B38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>119</v>
+        <v>27</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D39" s="30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="12" t="s">
+    <row r="40" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D40" s="33" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="29"/>
+    </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="14"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="14"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
-      <c r="B51" s="12" t="s">
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+      <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="20"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>101</v>
+      <c r="A52" s="21"/>
+      <c r="B52" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>115</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="30"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="30"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="30"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="30"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="30"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="8" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="30"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="30"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="30"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="30"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="30"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="14"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" s="12" t="s">
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="22"/>
+      <c r="B66" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="20"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="30"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="28"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="14"/>
+      <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="28"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="28"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="14"/>
+      <c r="D71" s="30"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="28"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="14"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="28"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="14"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="28"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="14"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="28"/>
-      <c r="B75" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="14"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="33"/>
-      <c r="B76" s="12" t="s">
+      <c r="B75" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="33"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="29"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="18"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="14"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
-      <c r="B80" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="14"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-      <c r="B81" s="12" t="s">
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="22"/>
+      <c r="B80" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="20"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="29"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="18"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="28"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="28"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="28"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="28"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="28"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="14"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="28"/>
-      <c r="B88" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="14"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="29"/>
-      <c r="B89" s="10" t="s">
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="24"/>
+      <c r="B88" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="19"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D89" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
+  <autoFilter ref="A1:D88" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A88"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A52:A67"/>
-    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="A67:A75"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
-    <hyperlink ref="C41" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+    <hyperlink ref="C39" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
+    <hyperlink ref="C40" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
@@ -2305,6 +2756,787 @@
     <hyperlink ref="C19" r:id="rId12" xr:uid="{507C5B2E-BB1A-4A90-B8D7-ABAE452C9498}"/>
     <hyperlink ref="C21" r:id="rId13" xr:uid="{292606D7-0E58-4B76-8F50-4FBDC5151440}"/>
     <hyperlink ref="C22" r:id="rId14" xr:uid="{F89EC98E-BCF1-4377-B1D9-263D1F451492}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{8A898D56-2EC1-441B-A26A-F76EDAA5F22B}"/>
+    <hyperlink ref="C2" r:id="rId16" xr:uid="{E7DECB55-1056-40EB-98E6-B8864FF5BBCA}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{6CEED314-D569-44E0-AA07-2EB1F3C16E56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+  <dimension ref="A1:F67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D66" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
+      <sortCondition ref="A16:A66"/>
+      <sortCondition ref="C16:C66"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{2C69A406-6EE2-493B-A585-2FACDD8E609E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAB0F8-DA92-4554-A888-3E4A5B5CFDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B42E0-784B-4A4C-9E13-5AED02C7BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="CharmingData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="264">
   <si>
     <t>Dash components</t>
   </si>
@@ -955,6 +955,15 @@
   </si>
   <si>
     <t>Texte</t>
+  </si>
+  <si>
+    <t>indexD004_ScatterMatrix</t>
+  </si>
+  <si>
+    <t>Cours sur le composant matrice de dispersion (px.scatter_matrix) et sur le
+composant qui affiche un message d'information (dcc.ConfirmDialog).
+Recours à la sous-librairie no_update qui permet de ne pas MAJ un composant
+Documentation sur le texte affiché en survolant un composant (hover)</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,6 +1468,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1486,35 +1522,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1854,11 +1862,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,12 +1888,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1894,228 +1902,228 @@
       <c r="C2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="21" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="21" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="21" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="21" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2124,100 +2132,104 @@
       <c r="C21" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="20" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2226,190 +2238,190 @@
       <c r="C32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="21" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="29" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="29"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="30"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="30"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="30"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="30"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="30"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="30"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="30"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="29" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2418,315 +2430,315 @@
       <c r="C51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="20" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="30"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="30"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="30"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="30"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="30"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="30"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="30"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="30"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="30"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="30"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="30"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="11"/>
-      <c r="D66" s="31"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="29" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="34"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="30"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="30"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="30"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="30"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="30"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="30"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="28"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="33"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="29"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="30"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="30"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="30"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="11"/>
-      <c r="D80" s="31"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="6"/>
-      <c r="D81" s="29"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="23"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="30"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="30"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="30"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="30"/>
+      <c r="D85" s="21"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="30"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="30"/>
+      <c r="D87" s="21"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="24"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="11"/>
-      <c r="D88" s="31"/>
+      <c r="D88" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D88" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
@@ -2759,6 +2771,7 @@
     <hyperlink ref="C23" r:id="rId15" xr:uid="{8A898D56-2EC1-441B-A26A-F76EDAA5F22B}"/>
     <hyperlink ref="C2" r:id="rId16" xr:uid="{E7DECB55-1056-40EB-98E6-B8864FF5BBCA}"/>
     <hyperlink ref="C3" r:id="rId17" xr:uid="{6CEED314-D569-44E0-AA07-2EB1F3C16E56}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{23F8854E-3C9A-423C-9A4B-44EDA628AD23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2768,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2791,176 +2804,176 @@
       <c r="C1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F5" s="35"/>
-    </row>
-    <row r="6" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3029,7 +3042,7 @@
       <c r="B22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3073,7 +3086,7 @@
       <c r="B26" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="7" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3128,7 +3141,7 @@
       <c r="B31" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3172,7 +3185,7 @@
       <c r="B35" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3205,7 +3218,7 @@
       <c r="B38" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3216,7 +3229,7 @@
       <c r="B39" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="7" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3271,7 +3284,7 @@
       <c r="B44" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3326,7 +3339,7 @@
       <c r="B49" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="7" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3337,7 +3350,7 @@
       <c r="B50" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3359,7 +3372,7 @@
       <c r="B52" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3370,7 +3383,7 @@
       <c r="B53" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3392,7 +3405,7 @@
       <c r="B55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3425,7 +3438,7 @@
       <c r="B58" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3436,7 +3449,7 @@
       <c r="B59" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3447,7 +3460,7 @@
       <c r="B60" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3458,7 +3471,7 @@
       <c r="B61" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3491,7 +3504,7 @@
       <c r="B64" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="7" t="s">
         <v>90</v>
       </c>
     </row>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B42E0-784B-4A4C-9E13-5AED02C7BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025DC77-C66C-4DA0-851B-B72DB763C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$D$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$159</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="301">
   <si>
     <t>Dash components</t>
   </si>
@@ -515,10 +515,6 @@
     <t>Mise en forme des cellules : largeur des colonnes, pointillés en fin de phrase si longueur &gt; taille de la cellule, lignes / colonnes figées, barre de déroulement…</t>
   </si>
   <si>
-    <t>indexE007_Height
-indexE007_Styling</t>
-  </si>
-  <si>
     <t>Pagination de la datatable selon 3 situations (fichier indexE007_Height)
 Style de la datatable avec dans certaines situations application de conditions (fichier indexE007_Styling)</t>
   </si>
@@ -542,10 +538,6 @@
   </si>
   <si>
     <t>indexC013_CheckList</t>
-  </si>
-  <si>
-    <t>indexC014_InputBox
-indexC015_InputBox</t>
   </si>
   <si>
     <t>indexC016_DatePicker</t>
@@ -964,6 +956,123 @@
 composant qui affiche un message d'information (dcc.ConfirmDialog).
 Recours à la sous-librairie no_update qui permet de ne pas MAJ un composant
 Documentation sur le texte affiché en survolant un composant (hover)</t>
+  </si>
+  <si>
+    <t>html.I</t>
+  </si>
+  <si>
+    <t>Bouton d'exécution : icône rattaché</t>
+  </si>
+  <si>
+    <t>dbc.Input</t>
+  </si>
+  <si>
+    <t>dbc.Label</t>
+  </si>
+  <si>
+    <t>indexC014_InputBox</t>
+  </si>
+  <si>
+    <t>indexC015_InputBox</t>
+  </si>
+  <si>
+    <t>html.Datalist</t>
+  </si>
+  <si>
+    <t>Menu déroulant liste</t>
+  </si>
+  <si>
+    <t>dcc.DatePickerRange</t>
+  </si>
+  <si>
+    <t>Calendrier</t>
+  </si>
+  <si>
+    <t>html.H3</t>
+  </si>
+  <si>
+    <t>Titre H3</t>
+  </si>
+  <si>
+    <t>px.density_mapbox</t>
+  </si>
+  <si>
+    <t>Carte des densités</t>
+  </si>
+  <si>
+    <t>dcc.Download</t>
+  </si>
+  <si>
+    <t>Téléchargement des données</t>
+  </si>
+  <si>
+    <t>html.H2</t>
+  </si>
+  <si>
+    <t>Titre H2</t>
+  </si>
+  <si>
+    <t>dcc.Textarea</t>
+  </si>
+  <si>
+    <t>Zone de texte à saisir</t>
+  </si>
+  <si>
+    <t>dbc.Carousel</t>
+  </si>
+  <si>
+    <t>Images défilées</t>
+  </si>
+  <si>
+    <t>cyto.Cytoscape</t>
+  </si>
+  <si>
+    <t>DashCanvas</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>px.imshow</t>
+  </si>
+  <si>
+    <t>Images à insérer</t>
+  </si>
+  <si>
+    <t>dcc.ConfirmDialog</t>
+  </si>
+  <si>
+    <t>Message d'information</t>
+  </si>
+  <si>
+    <t>px.scatter_matrix</t>
+  </si>
+  <si>
+    <t>Nuage de points multiples</t>
+  </si>
+  <si>
+    <t>indexE007_Height</t>
+  </si>
+  <si>
+    <t>indexE007_Styling</t>
+  </si>
+  <si>
+    <t>IndexE009_Filter</t>
+  </si>
+  <si>
+    <t>indexE009_Hide</t>
+  </si>
+  <si>
+    <t>dcc.Location</t>
+  </si>
+  <si>
+    <t>Barre d'adresse navigateur @</t>
+  </si>
+  <si>
+    <t>indexC014_InputBox + indexC015_InputBox</t>
+  </si>
+  <si>
+    <t>indexE007_Height + indexE007_Styling</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,7 +1518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,9 +1559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,9 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1522,8 +1625,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1863,10 +1973,10 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1984,7 @@
     <col min="1" max="1" width="11.5546875" style="7"/>
     <col min="2" max="2" width="64" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="7" customWidth="1"/>
-    <col min="4" max="4" width="82.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="82.88671875" style="15" customWidth="1"/>
     <col min="5" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
@@ -1888,857 +1998,857 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>136</v>
+      <c r="D2" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>135</v>
+      <c r="D3" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>134</v>
+      <c r="D5" s="20" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>133</v>
+      <c r="C6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="C7" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>131</v>
+      <c r="C8" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>130</v>
+      <c r="C9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>139</v>
+      <c r="C10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>142</v>
+      <c r="C11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>137</v>
+      <c r="D12" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>144</v>
+      <c r="C13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>146</v>
+      <c r="C14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>148</v>
+      <c r="C15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>150</v>
+      <c r="C16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>152</v>
+      <c r="C17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>154</v>
+      <c r="C18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>155</v>
+      <c r="C19" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>138</v>
+      <c r="D20" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="27" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>158</v>
+      <c r="C21" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>160</v>
+      <c r="C22" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>163</v>
+      <c r="C23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>263</v>
+      <c r="C24" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="21"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="14" t="s">
         <v>122</v>
       </c>
+      <c r="D39" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="20"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="21"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="21"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="21"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="21"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="21"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="21"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="21"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="22"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="21"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="21"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="21"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="21"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="21"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="21"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="21"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="21"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="21"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="21"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="9"/>
-      <c r="D63" s="21"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="21"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="21"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="31"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="11"/>
-      <c r="D66" s="22"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="27" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="25"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="21"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="21"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="21"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="21"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="21"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="21"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="21"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="37"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="13"/>
-      <c r="D75" s="24"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
+      <c r="A77" s="28"/>
       <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="21"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="21"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="21"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="31"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="11"/>
-      <c r="D80" s="22"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="27" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="6"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="19"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="21"/>
+      <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="21"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="21"/>
+      <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="21"/>
+      <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="21"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C87" s="9"/>
-      <c r="D87" s="21"/>
+      <c r="D87" s="20"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="33"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="11"/>
-      <c r="D88" s="22"/>
+      <c r="D88" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D88" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
@@ -2772,6 +2882,22 @@
     <hyperlink ref="C2" r:id="rId16" xr:uid="{E7DECB55-1056-40EB-98E6-B8864FF5BBCA}"/>
     <hyperlink ref="C3" r:id="rId17" xr:uid="{6CEED314-D569-44E0-AA07-2EB1F3C16E56}"/>
     <hyperlink ref="C24" r:id="rId18" xr:uid="{23F8854E-3C9A-423C-9A4B-44EDA628AD23}"/>
+    <hyperlink ref="C4" r:id="rId19" xr:uid="{CC8EC6CF-D343-4B4A-B2C2-9018A995C230}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{4A12A80F-D492-49EF-B95A-C879314ACB9A}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{A310FD60-5E4B-49D2-A8EF-F8527AE05FB8}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{30FB0930-C4D9-4FFC-BFBB-1BA0ADB4B0B5}"/>
+    <hyperlink ref="C8" r:id="rId23" xr:uid="{42B11DE3-BB9C-438B-8D75-64B53EEEF417}"/>
+    <hyperlink ref="C12" r:id="rId24" xr:uid="{2F91CE0C-0054-4030-9295-2708446C70D6}"/>
+    <hyperlink ref="C20" r:id="rId25" xr:uid="{914DF161-4C51-48F2-8E60-7D745EFA1628}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
+    <hyperlink ref="C38" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
+    <hyperlink ref="C51" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
+    <hyperlink ref="C52" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2779,11 +2905,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,765 +2917,1943 @@
     <col min="1" max="1" width="35.44140625" customWidth="1"/>
     <col min="2" max="2" width="47.88671875" customWidth="1"/>
     <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B95" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="C95" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B136" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="C137" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="B144" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B153" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="B154" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="B155" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="B156" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="B157" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="B158" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="D159" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D66" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D66">
-      <sortCondition ref="A16:A66"/>
-      <sortCondition ref="C16:C66"/>
+  <autoFilter ref="A1:E159" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E153">
+      <sortCondition ref="A41:A153"/>
+      <sortCondition ref="C41:C153"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{2C69A406-6EE2-493B-A585-2FACDD8E609E}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{2C69A406-6EE2-493B-A585-2FACDD8E609E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025DC77-C66C-4DA0-851B-B72DB763C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7EC9A-1A4A-48CD-A847-00324FC603E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$163</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="303">
   <si>
     <t>Dash components</t>
   </si>
@@ -1073,6 +1073,12 @@
   </si>
   <si>
     <t>indexE007_Height + indexE007_Styling</t>
+  </si>
+  <si>
+    <t>indexD005_LinePlot</t>
+  </si>
+  <si>
+    <t>Graphique linéaire : MAJ selon les valeurs sélectionnées dans les menus déroulants</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1511,6 +1517,34 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1598,6 +1632,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1625,14 +1665,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1973,10 +2009,10 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2003,7 +2039,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2017,7 +2053,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2065,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2077,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2089,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2065,7 +2101,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2077,7 +2113,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2125,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2101,7 +2137,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2149,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2161,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2173,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -2149,7 +2185,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2197,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2173,7 +2209,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -2185,7 +2221,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -2197,7 +2233,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -2209,7 +2245,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2221,11 +2257,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="28" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -2233,7 +2269,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2247,7 +2283,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2295,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
@@ -2271,7 +2307,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2283,15 +2319,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
@@ -2299,7 +2339,7 @@
       <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
@@ -2307,7 +2347,7 @@
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
@@ -2315,7 +2355,7 @@
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
@@ -2323,7 +2363,7 @@
       <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2371,7 @@
       <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="12" t="s">
         <v>49</v>
       </c>
@@ -2339,7 +2379,7 @@
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="29" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2353,7 +2393,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
@@ -2365,7 +2405,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
@@ -2377,7 +2417,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
@@ -2389,7 +2429,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="8" t="s">
         <v>25</v>
       </c>
@@ -2401,7 +2441,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
@@ -2413,7 +2453,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
@@ -2425,7 +2465,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="8" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +2477,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
@@ -2449,7 +2489,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="29" t="s">
         <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2459,7 +2499,7 @@
       <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="8" t="s">
         <v>31</v>
       </c>
@@ -2467,7 +2507,7 @@
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
@@ -2475,7 +2515,7 @@
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="8" t="s">
         <v>33</v>
       </c>
@@ -2483,7 +2523,7 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
@@ -2491,7 +2531,7 @@
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
@@ -2499,7 +2539,7 @@
       <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="8" t="s">
         <v>36</v>
       </c>
@@ -2507,7 +2547,7 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -2515,7 +2555,7 @@
       <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
@@ -2523,7 +2563,7 @@
       <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="29"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
@@ -2531,7 +2571,7 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="29" t="s">
         <v>108</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2545,7 +2585,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
@@ -2557,7 +2597,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2565,7 +2605,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2573,7 +2613,7 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2581,7 +2621,7 @@
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="28"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
@@ -2589,7 +2629,7 @@
       <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
@@ -2597,7 +2637,7 @@
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="8" t="s">
         <v>17</v>
       </c>
@@ -2605,7 +2645,7 @@
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2613,7 +2653,7 @@
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2621,7 +2661,7 @@
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2629,7 +2669,7 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="28"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
@@ -2637,7 +2677,7 @@
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="28"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
@@ -2645,7 +2685,7 @@
       <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
@@ -2653,7 +2693,7 @@
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="28"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
@@ -2661,7 +2701,7 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="29"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="12" t="s">
         <v>64</v>
       </c>
@@ -2669,7 +2709,7 @@
       <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="29" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -2679,7 +2719,7 @@
       <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="30"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
@@ -2687,7 +2727,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
@@ -2695,7 +2735,7 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="30"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
@@ -2703,7 +2743,7 @@
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="30"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
@@ -2711,7 +2751,7 @@
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="30"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
@@ -2719,7 +2759,7 @@
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="30"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
@@ -2727,7 +2767,7 @@
       <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="30"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="8" t="s">
         <v>72</v>
       </c>
@@ -2735,7 +2775,7 @@
       <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="35"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="12" t="s">
         <v>73</v>
       </c>
@@ -2743,7 +2783,7 @@
       <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -2753,7 +2793,7 @@
       <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="28"/>
+      <c r="A77" s="30"/>
       <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
@@ -2761,7 +2801,7 @@
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="28"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
@@ -2769,7 +2809,7 @@
       <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="28"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="8" t="s">
         <v>77</v>
       </c>
@@ -2777,7 +2817,7 @@
       <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="29"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="12" t="s">
         <v>78</v>
       </c>
@@ -2785,7 +2825,7 @@
       <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -2795,7 +2835,7 @@
       <c r="D81" s="19"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
@@ -2803,7 +2843,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="30"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
@@ -2811,7 +2851,7 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="30"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
@@ -2819,7 +2859,7 @@
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="30"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="8" t="s">
         <v>83</v>
       </c>
@@ -2827,7 +2867,7 @@
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="30"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
@@ -2835,7 +2875,7 @@
       <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="30"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="8" t="s">
         <v>85</v>
       </c>
@@ -2843,7 +2883,7 @@
       <c r="D87" s="20"/>
     </row>
     <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="31"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="10" t="s">
         <v>86</v>
       </c>
@@ -2898,6 +2938,7 @@
     <hyperlink ref="C38" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
     <hyperlink ref="C51" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
     <hyperlink ref="C52" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
+    <hyperlink ref="C25" r:id="rId35" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2905,1956 +2946,2002 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="38" t="s">
         <v>145</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>293</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>295</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>296</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>296</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>296</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>295</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>260</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>207</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>260</v>
       </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>295</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="7" t="s">
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="7" t="s">
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D85" s="7"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D87" s="7"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D88" s="7"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="7"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="7"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D94" s="7"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D97" s="7"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="7"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D102" s="7"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="7"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="7"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="7" t="s">
+      <c r="D108" s="7"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="7"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D108" s="7"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="7" t="s">
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D112" s="7"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="7" t="s">
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="7"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D119" s="7"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="7" t="s">
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D124" s="7"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="7" t="s">
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="7" t="s">
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C128" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C129" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D127" s="7"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="7" t="s">
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C130" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D128" s="7"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="7" t="s">
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C131" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="7" t="s">
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C133" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D130" s="7"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C134" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D131" s="7"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="7" t="s">
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C135" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D132" s="7"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C136" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="7"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="7" t="s">
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C137" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="7"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C138" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D135" s="7"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="7" t="s">
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C139" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C140" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D137" s="7"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="7" t="s">
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C141" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="7"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C142" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D139" s="7"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C143" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D140" s="7"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C144" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D141" s="7"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="7" t="s">
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C145" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D142" s="7"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B146" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C146" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D143" s="7"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B147" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C147" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D144" s="7"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C148" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D145" s="7"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="7" t="s">
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C149" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D146" s="7"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="7" t="s">
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="7"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="7" t="s">
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C151" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D148" s="7"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D149" s="7"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="7" t="s">
+      <c r="D152" s="7"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C153" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D150" s="7"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
+      <c r="D153" s="7"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C154" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D151" s="7"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C155" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D152" s="7"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+      <c r="D155" s="7"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" s="7"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D153" s="7"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="7"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="7" t="s">
+      <c r="D158" s="7"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C159" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D155" s="7"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C160" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D156" s="7"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
+      <c r="D160" s="7"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B161" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C161" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D157" s="7"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="7" t="s">
+      <c r="D161" s="7"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C162" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D158" s="7"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+      <c r="D162" s="7"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C163" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D163" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E159" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E153">
-      <sortCondition ref="A41:A153"/>
-      <sortCondition ref="C41:C153"/>
+  <autoFilter ref="A1:E163" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E157">
+      <sortCondition ref="A41:A157"/>
+      <sortCondition ref="C41:C157"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{2C69A406-6EE2-493B-A585-2FACDD8E609E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7EC9A-1A4A-48CD-A847-00324FC603E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91710F-FCBA-422E-8E76-6706A6404A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Composants" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$166</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="305">
   <si>
     <t>Dash components</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Line Plot (Dropdown) - Dash Python (中文字幕)</t>
-  </si>
-  <si>
-    <t>Scatter Plot Mapbox (Checkbox) - Dash Python</t>
   </si>
   <si>
     <t>Scatter Plot (RangeSlider) - Python Dash Plotly</t>
@@ -1079,6 +1076,15 @@
   </si>
   <si>
     <t>Graphique linéaire : MAJ selon les valeurs sélectionnées dans les menus déroulants</t>
+  </si>
+  <si>
+    <t>indexD006_ScatterPlot</t>
+  </si>
+  <si>
+    <t>MAJ d'un nuage de points à partir d'un curseur à intervalles</t>
+  </si>
+  <si>
+    <t>px.scatter</t>
   </si>
 </sst>
 </file>
@@ -1638,6 +1644,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1664,12 +1676,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2006,13 +2012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2026,7 +2032,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2035,311 +2041,315 @@
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>104</v>
+      <c r="A2" s="36" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>106</v>
+      <c r="A21" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
@@ -2347,7 +2357,7 @@
       <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
@@ -2355,249 +2365,249 @@
       <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="20"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31"/>
-      <c r="B31" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="23"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="18" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
       <c r="B36" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
       <c r="B37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>299</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
       <c r="B38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>300</v>
+        <v>28</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="14" t="s">
+    <row r="39" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="33"/>
+      <c r="B39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31"/>
-      <c r="B40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="D39" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>124</v>
-      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="19"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="31"/>
-      <c r="B50" s="12" t="s">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="33"/>
+      <c r="B49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="21"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>101</v>
+      <c r="C51" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2605,7 +2615,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2613,7 +2623,7 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2621,7 +2631,7 @@
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
@@ -2629,23 +2639,23 @@
       <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="8" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2653,7 +2663,7 @@
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="30"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2661,7 +2671,7 @@
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2669,7 +2679,7 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
@@ -2677,7 +2687,7 @@
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
@@ -2685,41 +2695,41 @@
       <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="33"/>
+      <c r="B65" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="31"/>
-      <c r="B66" s="12" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="24"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
@@ -2727,7 +2737,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
@@ -2735,7 +2745,7 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
@@ -2743,7 +2753,7 @@
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
@@ -2751,7 +2761,7 @@
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
@@ -2759,41 +2769,41 @@
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="8" t="s">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="39"/>
+      <c r="B74" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="37"/>
-      <c r="B75" s="12" t="s">
+      <c r="C74" s="13"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="23"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="32"/>
+      <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="19"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="30"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
@@ -2801,41 +2811,41 @@
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="30"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="20"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="30"/>
-      <c r="B79" s="8" t="s">
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="33"/>
+      <c r="B79" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="31"/>
-      <c r="B80" s="12" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="21"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="34"/>
+      <c r="B81" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="19"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
@@ -2843,7 +2853,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
@@ -2851,7 +2861,7 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
@@ -2859,7 +2869,7 @@
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="8" t="s">
         <v>83</v>
       </c>
@@ -2867,45 +2877,37 @@
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
-      <c r="B87" s="8" t="s">
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="35"/>
+      <c r="B87" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="33"/>
-      <c r="B88" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="21"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D88" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
+  <autoFilter ref="A1:D87" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A87"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A51:A66"/>
-    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A66:A74"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
-    <hyperlink ref="C40" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
+    <hyperlink ref="C39" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
@@ -2929,16 +2931,17 @@
     <hyperlink ref="C8" r:id="rId23" xr:uid="{42B11DE3-BB9C-438B-8D75-64B53EEEF417}"/>
     <hyperlink ref="C12" r:id="rId24" xr:uid="{2F91CE0C-0054-4030-9295-2708446C70D6}"/>
     <hyperlink ref="C20" r:id="rId25" xr:uid="{914DF161-4C51-48F2-8E60-7D745EFA1628}"/>
-    <hyperlink ref="C32" r:id="rId26" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
-    <hyperlink ref="C33" r:id="rId27" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
-    <hyperlink ref="C34" r:id="rId28" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
-    <hyperlink ref="C35" r:id="rId29" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
-    <hyperlink ref="C36" r:id="rId30" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
-    <hyperlink ref="C37" r:id="rId31" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
-    <hyperlink ref="C51" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
-    <hyperlink ref="C52" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
+    <hyperlink ref="C33" r:id="rId28" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
+    <hyperlink ref="C35" r:id="rId30" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
+    <hyperlink ref="C50" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
+    <hyperlink ref="C51" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
     <hyperlink ref="C25" r:id="rId35" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
+    <hyperlink ref="C26" r:id="rId36" xr:uid="{3D828184-84BE-420B-BC87-7051E5C881CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2946,11 +2949,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2964,1978 +2967,2013 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="7"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>145</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>286</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="C28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>283</v>
-      </c>
       <c r="C30" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="C40" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="C43" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>271</v>
-      </c>
       <c r="C44" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="C69" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="C71" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="C72" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="C73" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>198</v>
+        <v>229</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>295</v>
+        <v>153</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="C86" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="C87" s="8" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="C89" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="C95" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C97" s="8" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C98" s="8" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C99" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C100" s="8" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C101" s="8" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="C102" s="8" t="s">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C107" s="8" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C108" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C110" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C111" s="8" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C112" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C113" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="C114" s="8" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="C116" s="8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="C118" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="C123" s="8" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>214</v>
-      </c>
       <c r="C124" s="8" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C127" s="8" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C128" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C129" s="8" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C130" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C131" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C132" s="8" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="C137" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="C138" s="8" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>90</v>
+        <v>258</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>301</v>
+        <v>93</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D163" s="7"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" s="7"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D165" s="7"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D163" s="7"/>
+      <c r="C166" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D166" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E163" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E157">
-      <sortCondition ref="A41:A157"/>
-      <sortCondition ref="C41:C157"/>
+  <autoFilter ref="A1:E166" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E159">
+      <sortCondition ref="A41:A159"/>
+      <sortCondition ref="C41:C159"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA91710F-FCBA-422E-8E76-6706A6404A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEFBEFF-97BC-40BF-BB7A-0FC1D122AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$169</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="307">
   <si>
     <t>Dash components</t>
   </si>
@@ -1085,6 +1085,12 @@
   </si>
   <si>
     <t>px.scatter</t>
+  </si>
+  <si>
+    <t>indexD007_ChoroplethMap</t>
+  </si>
+  <si>
+    <t>MAJ d'une carte graphique à partir d'une zone de saisie des données numériques (années)</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,6 +1682,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2015,10 +2027,10 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2353,8 +2365,12 @@
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
@@ -2942,6 +2958,7 @@
     <hyperlink ref="C51" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
     <hyperlink ref="C25" r:id="rId35" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
     <hyperlink ref="C26" r:id="rId36" xr:uid="{3D828184-84BE-420B-BC87-7051E5C881CF}"/>
+    <hyperlink ref="C27" r:id="rId37" xr:uid="{92321215-EF9D-4D68-A38F-5AE2C9390E46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2949,11 +2966,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2980,6 +2997,7 @@
       <c r="E1" s="27" t="s">
         <v>207</v>
       </c>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -3771,13 +3789,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>218</v>
+        <v>200</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>305</v>
       </c>
       <c r="D67" s="7"/>
     </row>
@@ -3789,31 +3807,31 @@
         <v>222</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="D70" s="7"/>
     </row>
@@ -3825,7 +3843,7 @@
         <v>195</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="D71" s="7"/>
     </row>
@@ -3837,7 +3855,7 @@
         <v>195</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="D72" s="7"/>
     </row>
@@ -3849,19 +3867,19 @@
         <v>195</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="D74" s="7"/>
     </row>
@@ -3873,7 +3891,7 @@
         <v>198</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D75" s="7"/>
     </row>
@@ -3885,7 +3903,7 @@
         <v>198</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D76" s="7"/>
     </row>
@@ -3897,19 +3915,19 @@
         <v>198</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="D78" s="7"/>
     </row>
@@ -3921,7 +3939,7 @@
         <v>229</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D79" s="7"/>
     </row>
@@ -3932,20 +3950,20 @@
       <c r="B80" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>302</v>
+      <c r="C80" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>197</v>
+        <v>229</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="D81" s="7"/>
     </row>
@@ -3957,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D82" s="7"/>
     </row>
@@ -3969,7 +3987,7 @@
         <v>131</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D83" s="7"/>
     </row>
@@ -3981,7 +3999,7 @@
         <v>131</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="D84" s="7"/>
     </row>
@@ -3993,19 +4011,19 @@
         <v>131</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>294</v>
+        <v>153</v>
       </c>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="D86" s="7"/>
     </row>
@@ -4017,7 +4035,7 @@
         <v>256</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D87" s="7"/>
     </row>
@@ -4029,28 +4047,28 @@
         <v>256</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>231</v>
@@ -4059,37 +4077,37 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="D93" s="7"/>
     </row>
@@ -4101,19 +4119,19 @@
         <v>223</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="D95" s="7"/>
     </row>
@@ -4125,19 +4143,19 @@
         <v>205</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D97" s="7"/>
     </row>
@@ -4149,7 +4167,7 @@
         <v>184</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="D98" s="7"/>
     </row>
@@ -4161,7 +4179,7 @@
         <v>184</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="D99" s="7"/>
     </row>
@@ -4173,7 +4191,7 @@
         <v>184</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D100" s="7"/>
     </row>
@@ -4185,7 +4203,7 @@
         <v>184</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="D101" s="7"/>
     </row>
@@ -4197,7 +4215,7 @@
         <v>184</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D102" s="7"/>
     </row>
@@ -4209,55 +4227,55 @@
         <v>184</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>187</v>
+        <v>241</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>305</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="D107" s="7"/>
     </row>
@@ -4269,7 +4287,7 @@
         <v>186</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D108" s="7"/>
     </row>
@@ -4281,7 +4299,7 @@
         <v>186</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D109" s="7"/>
     </row>
@@ -4293,7 +4311,7 @@
         <v>186</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D110" s="7"/>
     </row>
@@ -4305,7 +4323,7 @@
         <v>186</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D111" s="7"/>
     </row>
@@ -4317,7 +4335,7 @@
         <v>186</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="D112" s="7"/>
     </row>
@@ -4329,7 +4347,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -4341,7 +4359,7 @@
         <v>186</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D114" s="7"/>
     </row>
@@ -4353,112 +4371,112 @@
         <v>186</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>111</v>
@@ -4473,43 +4491,43 @@
         <v>213</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D128" s="7"/>
     </row>
@@ -4521,7 +4539,7 @@
         <v>189</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="D129" s="7"/>
     </row>
@@ -4533,7 +4551,7 @@
         <v>189</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D130" s="7"/>
     </row>
@@ -4545,7 +4563,7 @@
         <v>189</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="D131" s="7"/>
     </row>
@@ -4557,7 +4575,7 @@
         <v>189</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D132" s="7"/>
     </row>
@@ -4569,31 +4587,31 @@
         <v>189</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D135" s="7"/>
     </row>
@@ -4605,16 +4623,16 @@
         <v>252</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>111</v>
@@ -4623,13 +4641,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="D138" s="7"/>
     </row>
@@ -4641,7 +4659,7 @@
         <v>258</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D139" s="7"/>
     </row>
@@ -4652,44 +4670,44 @@
       <c r="B140" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>302</v>
+      <c r="C140" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>89</v>
+        <v>258</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="D143" s="7"/>
     </row>
@@ -4701,7 +4719,7 @@
         <v>223</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="D144" s="7"/>
     </row>
@@ -4713,7 +4731,7 @@
         <v>223</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D145" s="7"/>
     </row>
@@ -4725,7 +4743,7 @@
         <v>223</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D146" s="7"/>
     </row>
@@ -4737,7 +4755,7 @@
         <v>223</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="D147" s="7"/>
     </row>
@@ -4749,31 +4767,31 @@
         <v>223</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="D150" s="7"/>
     </row>
@@ -4785,67 +4803,67 @@
         <v>215</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>87</v>
+        <v>215</v>
+      </c>
+      <c r="C154" s="41" t="s">
+        <v>305</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="D156" s="7"/>
     </row>
@@ -4857,7 +4875,7 @@
         <v>216</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D157" s="7"/>
     </row>
@@ -4869,43 +4887,43 @@
         <v>216</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="D161" s="7"/>
     </row>
@@ -4917,7 +4935,7 @@
         <v>217</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="D162" s="7"/>
     </row>
@@ -4929,7 +4947,7 @@
         <v>217</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D163" s="7"/>
     </row>
@@ -4941,39 +4959,75 @@
         <v>217</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>304</v>
+        <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="7"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D167" s="7"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D168" s="7"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B169" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C169" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D166" s="7"/>
+      <c r="D169" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E166" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E159">
-      <sortCondition ref="A41:A159"/>
-      <sortCondition ref="C41:C159"/>
+  <autoFilter ref="A1:E169" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E162">
+      <sortCondition ref="A41:A162"/>
+      <sortCondition ref="C41:C162"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEFBEFF-97BC-40BF-BB7A-0FC1D122AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA39DB9-1AAF-4382-9DC4-C01FB4A00EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="310">
   <si>
     <t>Dash components</t>
   </si>
@@ -1091,6 +1091,15 @@
   </si>
   <si>
     <t>MAJ d'une carte graphique à partir d'une zone de saisie des données numériques (années)</t>
+  </si>
+  <si>
+    <t>indexD008_ExcelDashBoard</t>
+  </si>
+  <si>
+    <t>MAJ d'un diagramme en barres selon les valeurs choisies dans des menus déroulants</t>
+  </si>
+  <si>
+    <t>Voir avec la nouvelle version 2.14 de Dash</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1656,6 +1665,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1686,8 +1698,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2027,10 +2039,10 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,7 +2069,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2071,7 +2083,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +2095,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2107,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2119,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2119,7 +2131,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2143,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2155,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2155,7 +2167,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2179,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -2179,7 +2191,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2203,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -2203,7 +2215,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2215,7 +2227,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2239,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2251,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -2251,7 +2263,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2275,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2287,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2299,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2301,7 +2313,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2325,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +2337,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2337,7 +2349,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
@@ -2349,7 +2361,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
@@ -2361,27 +2373,31 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="20" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
@@ -2389,7 +2405,7 @@
       <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="12" t="s">
         <v>48</v>
       </c>
@@ -2397,7 +2413,7 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2411,7 +2427,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
@@ -2423,7 +2439,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
@@ -2435,7 +2451,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -2447,7 +2463,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="8" t="s">
         <v>25</v>
       </c>
@@ -2459,7 +2475,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
@@ -2471,7 +2487,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="32"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="8" t="s">
         <v>27</v>
       </c>
@@ -2483,7 +2499,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2495,7 +2511,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="12" t="s">
         <v>29</v>
       </c>
@@ -2507,7 +2523,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2517,7 +2533,7 @@
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="8" t="s">
         <v>31</v>
       </c>
@@ -2525,7 +2541,7 @@
       <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="8" t="s">
         <v>32</v>
       </c>
@@ -2533,7 +2549,7 @@
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="8" t="s">
         <v>33</v>
       </c>
@@ -2541,7 +2557,7 @@
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
@@ -2549,7 +2565,7 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
@@ -2557,7 +2573,7 @@
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2565,7 +2581,7 @@
       <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="8" t="s">
         <v>37</v>
       </c>
@@ -2573,7 +2589,7 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
@@ -2581,7 +2597,7 @@
       <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="12" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2605,7 @@
       <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>107</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2603,7 +2619,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2615,7 +2631,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
@@ -2623,7 +2639,7 @@
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2631,7 +2647,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +2655,7 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="8" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2663,7 @@
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="8" t="s">
         <v>55</v>
       </c>
@@ -2655,7 +2671,7 @@
       <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="8" t="s">
         <v>17</v>
       </c>
@@ -2663,15 +2679,17 @@
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="42" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2679,7 +2697,7 @@
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2687,7 +2705,7 @@
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2695,7 +2713,7 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
@@ -2703,7 +2721,7 @@
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="8" t="s">
         <v>61</v>
       </c>
@@ -2711,7 +2729,7 @@
       <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2737,7 @@
       <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="33"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="12" t="s">
         <v>63</v>
       </c>
@@ -2727,7 +2745,7 @@
       <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="32" t="s">
         <v>108</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2737,7 +2755,7 @@
       <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="8" t="s">
         <v>65</v>
       </c>
@@ -2745,7 +2763,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
+      <c r="A68" s="35"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
@@ -2753,7 +2771,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
@@ -2761,7 +2779,7 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
@@ -2769,7 +2787,7 @@
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
+      <c r="A71" s="35"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
@@ -2777,7 +2795,7 @@
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
@@ -2785,7 +2803,7 @@
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
+      <c r="A73" s="35"/>
       <c r="B73" s="8" t="s">
         <v>71</v>
       </c>
@@ -2793,7 +2811,7 @@
       <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="12" t="s">
         <v>72</v>
       </c>
@@ -2801,7 +2819,7 @@
       <c r="D74" s="23"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="32" t="s">
         <v>109</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -2811,7 +2829,7 @@
       <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
@@ -2819,7 +2837,7 @@
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="32"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="8" t="s">
         <v>75</v>
       </c>
@@ -2827,7 +2845,7 @@
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
@@ -2835,7 +2853,7 @@
       <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="12" t="s">
         <v>77</v>
       </c>
@@ -2843,7 +2861,7 @@
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -2853,7 +2871,7 @@
       <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
+      <c r="A81" s="35"/>
       <c r="B81" s="8" t="s">
         <v>79</v>
       </c>
@@ -2861,7 +2879,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
@@ -2869,7 +2887,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
@@ -2877,7 +2895,7 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
@@ -2885,7 +2903,7 @@
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="8" t="s">
         <v>83</v>
       </c>
@@ -2893,7 +2911,7 @@
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
+      <c r="A86" s="35"/>
       <c r="B86" s="8" t="s">
         <v>84</v>
       </c>
@@ -2901,7 +2919,7 @@
       <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="35"/>
+      <c r="A87" s="36"/>
       <c r="B87" s="10" t="s">
         <v>85</v>
       </c>
@@ -2959,6 +2977,8 @@
     <hyperlink ref="C25" r:id="rId35" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
     <hyperlink ref="C26" r:id="rId36" xr:uid="{3D828184-84BE-420B-BC87-7051E5C881CF}"/>
     <hyperlink ref="C27" r:id="rId37" xr:uid="{92321215-EF9D-4D68-A38F-5AE2C9390E46}"/>
+    <hyperlink ref="C28" r:id="rId38" xr:uid="{F4D2907C-5DCE-4C36-B372-B3ACB3C58CA2}"/>
+    <hyperlink ref="D58" r:id="rId39" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2997,7 +3017,7 @@
       <c r="E1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -3794,7 +3814,7 @@
       <c r="B67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="31" t="s">
         <v>305</v>
       </c>
       <c r="D67" s="7"/>
@@ -4262,7 +4282,7 @@
       <c r="B106" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="31" t="s">
         <v>305</v>
       </c>
       <c r="D106" s="7"/>
@@ -4838,7 +4858,7 @@
       <c r="B154" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C154" s="41" t="s">
+      <c r="C154" s="31" t="s">
         <v>305</v>
       </c>
       <c r="D154" s="7"/>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA39DB9-1AAF-4382-9DC4-C01FB4A00EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B65F1-8A85-494D-ACE5-BDC0966DF230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$182</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="318">
   <si>
     <t>Dash components</t>
   </si>
@@ -1100,6 +1100,34 @@
   </si>
   <si>
     <t>Voir avec la nouvelle version 2.14 de Dash</t>
+  </si>
+  <si>
+    <t>indexD009_ExcelDashBoard</t>
+  </si>
+  <si>
+    <t>px.histogram</t>
+  </si>
+  <si>
+    <t>Histogramme</t>
+  </si>
+  <si>
+    <t>indexD010_OHLC_Candlestick</t>
+  </si>
+  <si>
+    <t>Dans ce programme on visualise deux graphiques qui présente des valeurs selon
+un ordre chronologique (axe des abscisses), qui sont similaires à des graphiques
+linéaires, à différence que pour chaque valeur (journalière, hebdo...), il y a
+une valeur minimum et une valeur maximum selon une présentation différente au
+regard de l'un des graphiques présentés dans ce script.</t>
+  </si>
+  <si>
+    <t>go.Candlestick</t>
+  </si>
+  <si>
+    <t>Graphique linéaire avec variation des valeurs quotidiennes (bourse par ex)</t>
+  </si>
+  <si>
+    <t>go.Ohlc</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1665,8 +1693,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1695,11 +1723,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2039,10 +2070,10 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,17 +2423,21 @@
       <c r="C28" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
@@ -2684,7 +2719,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="31" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2979,6 +3014,7 @@
     <hyperlink ref="C27" r:id="rId37" xr:uid="{92321215-EF9D-4D68-A38F-5AE2C9390E46}"/>
     <hyperlink ref="C28" r:id="rId38" xr:uid="{F4D2907C-5DCE-4C36-B372-B3ACB3C58CA2}"/>
     <hyperlink ref="D58" r:id="rId39" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
+    <hyperlink ref="C29" r:id="rId40" xr:uid="{2ADD7004-CECF-4C89-B3CA-CC6CF2C01DA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2986,11 +3022,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,7 +3036,7 @@
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3010,14 +3046,16 @@
       <c r="B1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="42" t="s">
         <v>182</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -3026,11 +3064,10 @@
       <c r="B2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -3737,25 +3774,25 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="D62" s="7"/>
     </row>
@@ -3767,7 +3804,7 @@
         <v>200</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -3779,7 +3816,7 @@
         <v>200</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="D64" s="7"/>
     </row>
@@ -3791,7 +3828,7 @@
         <v>200</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D65" s="7"/>
     </row>
@@ -3803,7 +3840,7 @@
         <v>200</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -3814,80 +3851,80 @@
       <c r="B67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="31" t="s">
-        <v>305</v>
+      <c r="C67" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>124</v>
+        <v>200</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>305</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D73" s="7"/>
     </row>
@@ -3899,43 +3936,43 @@
         <v>195</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="D77" s="7"/>
     </row>
@@ -3947,79 +3984,79 @@
         <v>198</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>302</v>
+        <v>198</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="D84" s="7"/>
     </row>
@@ -4031,7 +4068,7 @@
         <v>131</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="D85" s="7"/>
     </row>
@@ -4043,199 +4080,199 @@
         <v>131</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>183</v>
+        <v>317</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="D102" s="7"/>
     </row>
@@ -4247,7 +4284,7 @@
         <v>184</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="D103" s="7"/>
     </row>
@@ -4259,103 +4296,103 @@
         <v>184</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>305</v>
+        <v>184</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>218</v>
+        <v>241</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>305</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="D112" s="7"/>
     </row>
@@ -4367,7 +4404,7 @@
         <v>186</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -4379,7 +4416,7 @@
         <v>186</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D114" s="7"/>
     </row>
@@ -4391,7 +4428,7 @@
         <v>186</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="D115" s="7"/>
     </row>
@@ -4403,7 +4440,7 @@
         <v>186</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="D116" s="7"/>
     </row>
@@ -4415,639 +4452,795 @@
         <v>186</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>302</v>
+        <v>189</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>305</v>
+        <v>223</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>154</v>
+        <v>215</v>
+      </c>
+      <c r="C165" s="43" t="s">
+        <v>305</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D170" s="7"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D171" s="7"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D172" s="7"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D180" s="7"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B182" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C182" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D182" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E169" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E162">
-      <sortCondition ref="A41:A162"/>
-      <sortCondition ref="C41:C162"/>
+  <autoFilter ref="A1:E182" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E174">
+      <sortCondition ref="A41:A174"/>
+      <sortCondition ref="C41:C174"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B65F1-8A85-494D-ACE5-BDC0966DF230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93AAFC2-F540-4A7A-A02B-F15214C18B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Composants" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$186</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="319">
   <si>
     <t>Dash components</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Dash DataTable Tips and Tricks</t>
   </si>
   <si>
-    <t>How to Style your Dash App with Bootstrap Cheat Sheet</t>
-  </si>
-  <si>
     <t>Introduction to Dash Bootstrap - Styling your App</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>Financial app - Dropdown w Candlestick &amp; OHLC charts - Plotly Dash</t>
-  </si>
-  <si>
-    <t>Learn about the Callback first if you are starting to learn Dash Plotly</t>
   </si>
   <si>
     <t>Create your Plotly Dash Multipage App - Beta Version</t>
@@ -1128,6 +1122,15 @@
   </si>
   <si>
     <t>go.Ohlc</t>
+  </si>
+  <si>
+    <t>indexF001_CheatSheet</t>
+  </si>
+  <si>
+    <t>Mise en forme de la page @</t>
+  </si>
+  <si>
+    <t>dbc.Select</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1696,6 +1699,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1723,14 +1735,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2067,13 +2073,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2093,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2096,411 +2102,415 @@
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>103</v>
+      <c r="A2" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>105</v>
+      <c r="A21" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D22" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="8" t="s">
+      <c r="D23" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D26" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D26" s="20" t="s">
+      <c r="C27" s="14" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="8" t="s">
+      <c r="D27" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="8" t="s">
+    <row r="29" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37"/>
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="34"/>
-      <c r="B30" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="23"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
       <c r="B35" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>115</v>
@@ -2509,164 +2519,164 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
       <c r="B36" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="20" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
+      <c r="B37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="14" t="s">
+    <row r="38" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="37"/>
+      <c r="B38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="34"/>
-      <c r="B39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>123</v>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="19"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="20"/>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="37"/>
+      <c r="B47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="34"/>
-      <c r="B49" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="21"/>
+      <c r="A48" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="33"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
@@ -2674,7 +2684,7 @@
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="33"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2682,7 +2692,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="33"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2690,41 +2700,41 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="33"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="8" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="33"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="36"/>
+      <c r="B57" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="33"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="31" t="s">
-        <v>309</v>
-      </c>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="33"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2732,7 +2742,7 @@
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="33"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2740,7 +2750,7 @@
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="33"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2748,49 +2758,49 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="8" t="s">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="37"/>
+      <c r="B63" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="20"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="12" t="s">
+      <c r="C64" s="22"/>
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="21"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="24"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="8" t="s">
         <v>65</v>
       </c>
@@ -2798,7 +2808,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
@@ -2806,7 +2816,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
+      <c r="A69" s="38"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
@@ -2814,7 +2824,7 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
@@ -2822,91 +2832,91 @@
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="8" t="s">
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="43"/>
+      <c r="B72" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="20"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
-      <c r="B74" s="12" t="s">
+      <c r="C73" s="6"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
+      <c r="B74" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="23"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="19"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="33"/>
+      <c r="A76" s="36"/>
       <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="33"/>
-      <c r="B77" s="8" t="s">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="37"/>
+      <c r="B77" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="20"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="33"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="34"/>
-      <c r="B79" s="12" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="38"/>
+      <c r="B79" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="21"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="38"/>
+      <c r="B80" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="19"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="8" t="s">
         <v>79</v>
       </c>
@@ -2914,7 +2924,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="35"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
@@ -2922,7 +2932,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="35"/>
+      <c r="A83" s="38"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
@@ -2930,53 +2940,37 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="35"/>
+      <c r="A84" s="38"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
-      <c r="B85" s="8" t="s">
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="39"/>
+      <c r="B85" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="20"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="35"/>
-      <c r="B86" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="36"/>
-      <c r="B87" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="21"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
+  <autoFilter ref="A1:D85" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A85"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="A48:A63"/>
+    <mergeCell ref="A64:A72"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C38" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
-    <hyperlink ref="C39" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+    <hyperlink ref="C37" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
+    <hyperlink ref="C38" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
@@ -3000,21 +2994,22 @@
     <hyperlink ref="C8" r:id="rId23" xr:uid="{42B11DE3-BB9C-438B-8D75-64B53EEEF417}"/>
     <hyperlink ref="C12" r:id="rId24" xr:uid="{2F91CE0C-0054-4030-9295-2708446C70D6}"/>
     <hyperlink ref="C20" r:id="rId25" xr:uid="{914DF161-4C51-48F2-8E60-7D745EFA1628}"/>
-    <hyperlink ref="C31" r:id="rId26" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
-    <hyperlink ref="C32" r:id="rId27" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
-    <hyperlink ref="C35" r:id="rId30" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
-    <hyperlink ref="C36" r:id="rId31" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
-    <hyperlink ref="C37" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
-    <hyperlink ref="C50" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
-    <hyperlink ref="C51" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
+    <hyperlink ref="C36" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
+    <hyperlink ref="C48" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
+    <hyperlink ref="C49" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
     <hyperlink ref="C25" r:id="rId35" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
     <hyperlink ref="C26" r:id="rId36" xr:uid="{3D828184-84BE-420B-BC87-7051E5C881CF}"/>
     <hyperlink ref="C27" r:id="rId37" xr:uid="{92321215-EF9D-4D68-A38F-5AE2C9390E46}"/>
     <hyperlink ref="C28" r:id="rId38" xr:uid="{F4D2907C-5DCE-4C36-B372-B3ACB3C58CA2}"/>
-    <hyperlink ref="D58" r:id="rId39" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
-    <hyperlink ref="C29" r:id="rId40" xr:uid="{2ADD7004-CECF-4C89-B3CA-CC6CF2C01DA5}"/>
+    <hyperlink ref="D56" r:id="rId39" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
+    <hyperlink ref="C29" r:id="rId40" xr:uid="{D1917AE5-BC85-4011-B00D-F7DBE921DBC6}"/>
+    <hyperlink ref="C39" r:id="rId41" xr:uid="{BEFBB206-1F07-4F4C-A86C-30FC42DA8B24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,11 +3017,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3036,2211 +3031,2259 @@
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>180</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>182</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>305</v>
+        <v>198</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>218</v>
+        <v>198</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>317</v>
+        <v>166</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>204</v>
+        <v>315</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>305</v>
+        <v>182</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>190</v>
+        <v>239</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>302</v>
+        <v>109</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>307</v>
+        <v>157</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>310</v>
+        <v>89</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C165" s="43" t="s">
-        <v>305</v>
+        <v>221</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>286</v>
+        <v>175</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>87</v>
+        <v>213</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D176" s="7"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>304</v>
+        <v>162</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>290</v>
+        <v>162</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>259</v>
+        <v>154</v>
       </c>
       <c r="D182" s="7"/>
     </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D183" s="7"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D184" s="7"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D185" s="7"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D186" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E182" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E174">
-      <sortCondition ref="A41:A174"/>
-      <sortCondition ref="C41:C174"/>
+  <autoFilter ref="A1:E186" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E178">
+      <sortCondition ref="A42:A178"/>
+      <sortCondition ref="C42:C178"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93AAFC2-F540-4A7A-A02B-F15214C18B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908427C-9F64-4B9B-A364-8D605BACFC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$199</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="332">
   <si>
     <t>Dash components</t>
   </si>
@@ -1131,6 +1131,45 @@
   </si>
   <si>
     <t>dbc.Select</t>
+  </si>
+  <si>
+    <t>indexF002_Cards</t>
+  </si>
+  <si>
+    <t>Présentation des cartes pour lesquelles on peut insérer différents composants</t>
+  </si>
+  <si>
+    <t>dbc.Card</t>
+  </si>
+  <si>
+    <t>dbc.CardImg</t>
+  </si>
+  <si>
+    <t>Cartes : images</t>
+  </si>
+  <si>
+    <t>dbc.CardBody</t>
+  </si>
+  <si>
+    <t>Cartes</t>
+  </si>
+  <si>
+    <t>dbc.CardLink</t>
+  </si>
+  <si>
+    <t>Cartes : liens URL</t>
+  </si>
+  <si>
+    <t>Liste multiple</t>
+  </si>
+  <si>
+    <t>dbc.ListGroupItem</t>
+  </si>
+  <si>
+    <t>Liste item</t>
+  </si>
+  <si>
+    <t>Cartes : cadre</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1702,9 +1741,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1734,9 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2076,10 +2109,10 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,7 +2139,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2120,7 +2153,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +2165,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2177,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2189,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2201,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2213,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2225,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2237,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2249,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2261,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -2240,7 +2273,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -2252,7 +2285,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2264,7 +2297,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2276,7 +2309,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2321,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -2300,7 +2333,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -2312,7 +2345,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2357,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -2336,7 +2369,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2350,7 +2383,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +2395,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
@@ -2374,7 +2407,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
@@ -2386,7 +2419,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
         <v>42</v>
       </c>
@@ -2398,7 +2431,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
@@ -2410,7 +2443,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="8" t="s">
         <v>44</v>
       </c>
@@ -2422,7 +2455,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="8" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2467,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +2479,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2460,7 +2493,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="8" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2505,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
@@ -2484,7 +2517,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
@@ -2496,7 +2529,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
@@ -2508,7 +2541,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="8" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2553,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="8" t="s">
         <v>27</v>
       </c>
@@ -2532,7 +2565,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8" t="s">
         <v>28</v>
       </c>
@@ -2544,7 +2577,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="37"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="12" t="s">
         <v>29</v>
       </c>
@@ -2556,7 +2589,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="34" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2565,20 +2598,24 @@
       <c r="C39" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="19" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="8" t="s">
         <v>32</v>
       </c>
@@ -2586,7 +2623,7 @@
       <c r="D41" s="20"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -2594,7 +2631,7 @@
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="8" t="s">
         <v>34</v>
       </c>
@@ -2602,7 +2639,7 @@
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="8" t="s">
         <v>35</v>
       </c>
@@ -2610,7 +2647,7 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="8" t="s">
         <v>36</v>
       </c>
@@ -2618,7 +2655,7 @@
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="8" t="s">
         <v>37</v>
       </c>
@@ -2626,7 +2663,7 @@
       <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="37"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="12" t="s">
         <v>38</v>
       </c>
@@ -2634,7 +2671,7 @@
       <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="34" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2648,7 +2685,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -2660,7 +2697,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
@@ -2668,7 +2705,7 @@
       <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
@@ -2676,7 +2713,7 @@
       <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
@@ -2684,7 +2721,7 @@
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="8" t="s">
         <v>52</v>
       </c>
@@ -2692,7 +2729,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="8" t="s">
         <v>53</v>
       </c>
@@ -2700,7 +2737,7 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="8" t="s">
         <v>17</v>
       </c>
@@ -2708,7 +2745,7 @@
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
@@ -2718,7 +2755,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
+      <c r="A57" s="35"/>
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
@@ -2726,7 +2763,7 @@
       <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
+      <c r="A58" s="35"/>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
@@ -2734,7 +2771,7 @@
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
+      <c r="A59" s="35"/>
       <c r="B59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2742,7 +2779,7 @@
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2787,7 @@
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2758,7 +2795,7 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="8" t="s">
         <v>60</v>
       </c>
@@ -2766,7 +2803,7 @@
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="37"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="12" t="s">
         <v>61</v>
       </c>
@@ -2774,7 +2811,7 @@
       <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="34" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -2784,7 +2821,7 @@
       <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="38"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
@@ -2792,7 +2829,7 @@
       <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="38"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="8" t="s">
         <v>64</v>
       </c>
@@ -2800,7 +2837,7 @@
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="38"/>
+      <c r="A67" s="37"/>
       <c r="B67" s="8" t="s">
         <v>65</v>
       </c>
@@ -2808,7 +2845,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="38"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
@@ -2816,7 +2853,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="38"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="8" t="s">
         <v>67</v>
       </c>
@@ -2824,7 +2861,7 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="38"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="8" t="s">
         <v>68</v>
       </c>
@@ -2832,7 +2869,7 @@
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="38"/>
+      <c r="A71" s="37"/>
       <c r="B71" s="8" t="s">
         <v>69</v>
       </c>
@@ -2840,7 +2877,7 @@
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="12" t="s">
         <v>70</v>
       </c>
@@ -2848,7 +2885,7 @@
       <c r="D72" s="23"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="34" t="s">
         <v>107</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -2858,7 +2895,7 @@
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="36"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="8" t="s">
         <v>72</v>
       </c>
@@ -2866,7 +2903,7 @@
       <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="8" t="s">
         <v>73</v>
       </c>
@@ -2874,7 +2911,7 @@
       <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="36"/>
+      <c r="A76" s="35"/>
       <c r="B76" s="8" t="s">
         <v>74</v>
       </c>
@@ -2882,7 +2919,7 @@
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="37"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="12" t="s">
         <v>75</v>
       </c>
@@ -2890,7 +2927,7 @@
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="34" t="s">
         <v>108</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -2900,7 +2937,7 @@
       <c r="D78" s="19"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="38"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="8" t="s">
         <v>77</v>
       </c>
@@ -2908,7 +2945,7 @@
       <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="38"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="8" t="s">
         <v>78</v>
       </c>
@@ -2916,7 +2953,7 @@
       <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="38"/>
+      <c r="A81" s="37"/>
       <c r="B81" s="8" t="s">
         <v>79</v>
       </c>
@@ -2924,7 +2961,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="38"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
@@ -2932,7 +2969,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
+      <c r="A83" s="37"/>
       <c r="B83" s="8" t="s">
         <v>81</v>
       </c>
@@ -2940,7 +2977,7 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
@@ -2948,7 +2985,7 @@
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
+      <c r="A85" s="38"/>
       <c r="B85" s="10" t="s">
         <v>83</v>
       </c>
@@ -3010,6 +3047,7 @@
     <hyperlink ref="D56" r:id="rId39" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
     <hyperlink ref="C29" r:id="rId40" xr:uid="{D1917AE5-BC85-4011-B00D-F7DBE921DBC6}"/>
     <hyperlink ref="C39" r:id="rId41" xr:uid="{BEFBB206-1F07-4F4C-A86C-30FC42DA8B24}"/>
+    <hyperlink ref="C40" r:id="rId42" xr:uid="{426997BC-E1B8-4A68-A7BC-2947D58D16B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3017,11 +3055,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3041,7 +3079,7 @@
       <c r="B1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D1" s="4"/>
@@ -3049,7 +3087,7 @@
         <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3397,289 +3435,289 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>232</v>
+        <v>321</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>242</v>
+        <v>327</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D53" s="7"/>
     </row>
@@ -3691,7 +3729,7 @@
         <v>131</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="D54" s="7"/>
     </row>
@@ -3703,7 +3741,7 @@
         <v>131</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="D55" s="7"/>
     </row>
@@ -3715,7 +3753,7 @@
         <v>131</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="D56" s="7"/>
     </row>
@@ -3727,7 +3765,7 @@
         <v>131</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D57" s="7"/>
     </row>
@@ -3739,7 +3777,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="D58" s="7"/>
     </row>
@@ -3751,7 +3789,7 @@
         <v>131</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D59" s="7"/>
     </row>
@@ -3763,7 +3801,7 @@
         <v>131</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="D60" s="7"/>
     </row>
@@ -3775,7 +3813,7 @@
         <v>131</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="D61" s="7"/>
     </row>
@@ -3787,7 +3825,7 @@
         <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>305</v>
+        <v>144</v>
       </c>
       <c r="D62" s="7"/>
     </row>
@@ -3799,7 +3837,7 @@
         <v>131</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>308</v>
+        <v>152</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -3811,304 +3849,304 @@
         <v>131</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>303</v>
+        <v>131</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>293</v>
+        <v>198</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>204</v>
@@ -4117,409 +4155,409 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>151</v>
+        <v>209</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>303</v>
+        <v>182</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>138</v>
+        <v>239</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="D123" s="7"/>
     </row>
@@ -4531,7 +4569,7 @@
         <v>184</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="D124" s="7"/>
     </row>
@@ -4543,7 +4581,7 @@
         <v>184</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="D125" s="7"/>
     </row>
@@ -4555,7 +4593,7 @@
         <v>184</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="D126" s="7"/>
     </row>
@@ -4567,7 +4605,7 @@
         <v>184</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="D127" s="7"/>
     </row>
@@ -4579,124 +4617,124 @@
         <v>184</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>109</v>
+        <v>305</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>136</v>
@@ -4705,585 +4743,741 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C169" s="34" t="s">
-        <v>303</v>
+        <v>221</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="D175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="D176" s="7"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>152</v>
+        <v>213</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D182" s="7"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="D185" s="7"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D186" s="7"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D187" s="7"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D188" s="7"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D189" s="7"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B199" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C199" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D199" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E186" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E178">
-      <sortCondition ref="A42:A178"/>
-      <sortCondition ref="C42:C178"/>
+  <autoFilter ref="A1:E199" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E190">
+      <sortCondition ref="A49:A190"/>
+      <sortCondition ref="C49:C190"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27022"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908427C-9F64-4B9B-A364-8D605BACFC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5F8AA-D716-4976-A06D-673AB983F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Composants" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$203</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="339">
   <si>
     <t>Dash components</t>
   </si>
@@ -1170,6 +1170,27 @@
   </si>
   <si>
     <t>Cartes : cadre</t>
+  </si>
+  <si>
+    <t>Combine Altair with Dash for Fully Interactive Data Apps</t>
+  </si>
+  <si>
+    <t>indexC026_Altair</t>
+  </si>
+  <si>
+    <t>Nouvelle librairie pour de nouveaux composants</t>
+  </si>
+  <si>
+    <t>dvc.Vega</t>
+  </si>
+  <si>
+    <t>Altair : composants</t>
+  </si>
+  <si>
+    <t>alt.Chart</t>
+  </si>
+  <si>
+    <t>Altair : graphique</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1726,9 +1747,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,6 +1761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1771,6 +1792,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2106,13 +2149,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,276 +2399,280 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:4" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="41"/>
+      <c r="B21" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
+      <c r="B29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D29" s="20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="36"/>
-      <c r="B29" s="8" t="s">
+    <row r="30" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36"/>
+      <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D30" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>297</v>
+        <v>26</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="35"/>
+      <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="36"/>
-      <c r="B38" s="12" t="s">
+    <row r="39" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="36"/>
+      <c r="B39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D40" s="19" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="20"/>
@@ -2633,7 +2680,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="20"/>
@@ -2641,7 +2688,7 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="20"/>
@@ -2649,7 +2696,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="20"/>
@@ -2657,57 +2704,57 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="20"/>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
-      <c r="B47" s="12" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="35"/>
+      <c r="B47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="36"/>
+      <c r="B48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D49" s="19" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="20"/>
@@ -2715,7 +2762,7 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="20"/>
@@ -2723,7 +2770,7 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="20"/>
@@ -2731,7 +2778,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="20"/>
@@ -2739,7 +2786,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="8" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="20"/>
@@ -2747,25 +2794,25 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="8" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="31" t="s">
-        <v>307</v>
-      </c>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="20"/>
+      <c r="D57" s="30" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="20"/>
@@ -2773,7 +2820,7 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="20"/>
@@ -2781,7 +2828,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="20"/>
@@ -2789,7 +2836,7 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="20"/>
@@ -2797,41 +2844,41 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="36"/>
-      <c r="B63" s="12" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="35"/>
+      <c r="B63" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="36"/>
+      <c r="B64" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="21"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="21"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="24"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="20"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="37"/>
       <c r="B66" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="20"/>
@@ -2839,7 +2886,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="37"/>
       <c r="B67" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="20"/>
@@ -2847,7 +2894,7 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="37"/>
       <c r="B68" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="20"/>
@@ -2855,7 +2902,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="37"/>
       <c r="B69" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="20"/>
@@ -2863,7 +2910,7 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="20"/>
@@ -2871,41 +2918,41 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="42"/>
-      <c r="B72" s="12" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="37"/>
+      <c r="B72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="42"/>
+      <c r="B73" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="23"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="34" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="20"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="35"/>
       <c r="B75" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="20"/>
@@ -2913,41 +2960,41 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="35"/>
       <c r="B76" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="20"/>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="36"/>
-      <c r="B77" s="12" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="35"/>
+      <c r="B77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="36"/>
+      <c r="B78" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="21"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="34" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="37"/>
-      <c r="B79" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="20"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="37"/>
       <c r="B80" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="20"/>
@@ -2955,7 +3002,7 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="37"/>
       <c r="B81" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="20"/>
@@ -2963,7 +3010,7 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="37"/>
       <c r="B82" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="20"/>
@@ -2971,7 +3018,7 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="37"/>
       <c r="B83" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="20"/>
@@ -2979,35 +3026,43 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="37"/>
       <c r="B84" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
-      <c r="B85" s="10" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="37"/>
+      <c r="B85" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="20"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="38"/>
+      <c r="B86" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="21"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D85" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
+  <autoFilter ref="A1:D86" xr:uid="{E7740C0D-4472-44B5-807A-728B8476796F}"/>
   <mergeCells count="8">
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A48:A63"/>
-    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A86"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="A65:A73"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C37" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
-    <hyperlink ref="C38" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
+    <hyperlink ref="C38" r:id="rId1" xr:uid="{41A5E628-991D-424B-8CF6-5F06D3409D0F}"/>
+    <hyperlink ref="C39" r:id="rId2" display="IndexE009_Filter" xr:uid="{B2C7A335-F6C5-4A23-833D-576E9733B17A}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{BDF639C8-E7B6-4470-81E5-0BFE9A3FDBC5}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{00B4B091-77CF-4FFD-97D0-83716B2246F6}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{56FC8437-5E10-49CD-8E46-63670B6F4C24}"/>
@@ -3018,36 +3073,36 @@
     <hyperlink ref="C17" r:id="rId10" xr:uid="{0336CED1-6E48-44B4-873B-EC891838C2B5}"/>
     <hyperlink ref="C18" r:id="rId11" xr:uid="{E6D6697F-1BBE-4733-9C3B-29884354A6EF}"/>
     <hyperlink ref="C19" r:id="rId12" xr:uid="{507C5B2E-BB1A-4A90-B8D7-ABAE452C9498}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{292606D7-0E58-4B76-8F50-4FBDC5151440}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{F89EC98E-BCF1-4377-B1D9-263D1F451492}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{8A898D56-2EC1-441B-A26A-F76EDAA5F22B}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{292606D7-0E58-4B76-8F50-4FBDC5151440}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{F89EC98E-BCF1-4377-B1D9-263D1F451492}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{8A898D56-2EC1-441B-A26A-F76EDAA5F22B}"/>
     <hyperlink ref="C2" r:id="rId16" xr:uid="{E7DECB55-1056-40EB-98E6-B8864FF5BBCA}"/>
     <hyperlink ref="C3" r:id="rId17" xr:uid="{6CEED314-D569-44E0-AA07-2EB1F3C16E56}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{23F8854E-3C9A-423C-9A4B-44EDA628AD23}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{23F8854E-3C9A-423C-9A4B-44EDA628AD23}"/>
     <hyperlink ref="C4" r:id="rId19" xr:uid="{CC8EC6CF-D343-4B4A-B2C2-9018A995C230}"/>
     <hyperlink ref="C5" r:id="rId20" xr:uid="{4A12A80F-D492-49EF-B95A-C879314ACB9A}"/>
     <hyperlink ref="C6" r:id="rId21" xr:uid="{A310FD60-5E4B-49D2-A8EF-F8527AE05FB8}"/>
     <hyperlink ref="C7" r:id="rId22" xr:uid="{30FB0930-C4D9-4FFC-BFBB-1BA0ADB4B0B5}"/>
     <hyperlink ref="C8" r:id="rId23" xr:uid="{42B11DE3-BB9C-438B-8D75-64B53EEEF417}"/>
     <hyperlink ref="C12" r:id="rId24" xr:uid="{2F91CE0C-0054-4030-9295-2708446C70D6}"/>
-    <hyperlink ref="C20" r:id="rId25" xr:uid="{914DF161-4C51-48F2-8E60-7D745EFA1628}"/>
-    <hyperlink ref="C30" r:id="rId26" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
-    <hyperlink ref="C31" r:id="rId27" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
-    <hyperlink ref="C32" r:id="rId28" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
-    <hyperlink ref="C33" r:id="rId29" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
-    <hyperlink ref="C34" r:id="rId30" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
-    <hyperlink ref="C35" r:id="rId31" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
-    <hyperlink ref="C36" r:id="rId32" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
-    <hyperlink ref="C48" r:id="rId33" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
-    <hyperlink ref="C49" r:id="rId34" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
-    <hyperlink ref="C25" r:id="rId35" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
-    <hyperlink ref="C26" r:id="rId36" xr:uid="{3D828184-84BE-420B-BC87-7051E5C881CF}"/>
-    <hyperlink ref="C27" r:id="rId37" xr:uid="{92321215-EF9D-4D68-A38F-5AE2C9390E46}"/>
-    <hyperlink ref="C28" r:id="rId38" xr:uid="{F4D2907C-5DCE-4C36-B372-B3ACB3C58CA2}"/>
-    <hyperlink ref="D56" r:id="rId39" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
-    <hyperlink ref="C29" r:id="rId40" xr:uid="{D1917AE5-BC85-4011-B00D-F7DBE921DBC6}"/>
-    <hyperlink ref="C39" r:id="rId41" xr:uid="{BEFBB206-1F07-4F4C-A86C-30FC42DA8B24}"/>
-    <hyperlink ref="C40" r:id="rId42" xr:uid="{426997BC-E1B8-4A68-A7BC-2947D58D16B0}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{A691B251-F8F7-43BD-9C93-B4913B690EC7}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{C5DCD550-C53C-40A3-8BB1-E202830A1197}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{9F70D158-55AF-4D56-9868-92550FA30A12}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{6C5A0A51-DE8F-44EB-A2C1-31E6174E3BDE}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{94B684DD-075C-46B9-AE61-389CB18B0B12}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{D433E840-5817-45EC-9A81-9B4E4C528ECB}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{4969781B-83F1-49F0-9146-8A50532EECBA}"/>
+    <hyperlink ref="C49" r:id="rId32" xr:uid="{A15DC82D-C85E-4DA9-8862-9FB28781B5CD}"/>
+    <hyperlink ref="C50" r:id="rId33" xr:uid="{B97FCE9A-1C91-4442-B59D-A83BF707D956}"/>
+    <hyperlink ref="C26" r:id="rId34" xr:uid="{8ADDAD1C-C79B-487A-82D9-E8C87BC0033E}"/>
+    <hyperlink ref="C27" r:id="rId35" xr:uid="{3D828184-84BE-420B-BC87-7051E5C881CF}"/>
+    <hyperlink ref="C28" r:id="rId36" xr:uid="{92321215-EF9D-4D68-A38F-5AE2C9390E46}"/>
+    <hyperlink ref="C29" r:id="rId37" xr:uid="{F4D2907C-5DCE-4C36-B372-B3ACB3C58CA2}"/>
+    <hyperlink ref="D57" r:id="rId38" xr:uid="{11FD1716-3E11-4B21-A4DF-B437BEE788E4}"/>
+    <hyperlink ref="C30" r:id="rId39" xr:uid="{D1917AE5-BC85-4011-B00D-F7DBE921DBC6}"/>
+    <hyperlink ref="C40" r:id="rId40" xr:uid="{BEFBB206-1F07-4F4C-A86C-30FC42DA8B24}"/>
+    <hyperlink ref="C41" r:id="rId41" xr:uid="{426997BC-E1B8-4A68-A7BC-2947D58D16B0}"/>
+    <hyperlink ref="C21" r:id="rId42" xr:uid="{98A19162-0A61-4D48-9D68-09B8CB28D350}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3055,11 +3110,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3069,11 +3124,11 @@
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3087,33 +3142,34 @@
         <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="D3" s="7"/>
-      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3123,20 +3179,20 @@
         <v>143</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7"/>
@@ -3149,43 +3205,43 @@
         <v>226</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>222</v>
@@ -3195,49 +3251,50 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="D13" s="7"/>
     </row>
@@ -3249,7 +3306,7 @@
         <v>252</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -3261,7 +3318,7 @@
         <v>252</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D15" s="7"/>
     </row>
@@ -3273,7 +3330,7 @@
         <v>252</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -3285,7 +3342,7 @@
         <v>252</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -3297,7 +3354,7 @@
         <v>252</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -3309,7 +3366,7 @@
         <v>252</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -3321,7 +3378,7 @@
         <v>252</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -3333,7 +3390,7 @@
         <v>252</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -3345,7 +3402,7 @@
         <v>252</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -3357,7 +3414,7 @@
         <v>252</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="D23" s="7"/>
     </row>
@@ -3369,7 +3426,7 @@
         <v>252</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>292</v>
+        <v>119</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -3381,31 +3438,31 @@
         <v>252</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -3417,7 +3474,7 @@
         <v>239</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="D28" s="7"/>
     </row>
@@ -3429,7 +3486,7 @@
         <v>239</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7"/>
     </row>
@@ -3441,16 +3498,16 @@
         <v>239</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>319</v>
@@ -3459,10 +3516,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>319</v>
@@ -3471,10 +3528,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>319</v>
@@ -3483,10 +3540,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>319</v>
@@ -3495,25 +3552,25 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="D36" s="7"/>
     </row>
@@ -3525,19 +3582,19 @@
         <v>242</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="D38" s="7"/>
     </row>
@@ -3549,28 +3606,28 @@
         <v>242</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>110</v>
@@ -3585,19 +3642,19 @@
         <v>187</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="D43" s="7"/>
     </row>
@@ -3609,16 +3666,16 @@
         <v>328</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>319</v>
@@ -3627,49 +3684,49 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="D49" s="7"/>
     </row>
@@ -3681,55 +3738,55 @@
         <v>197</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D54" s="7"/>
     </row>
@@ -3741,7 +3798,7 @@
         <v>131</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D55" s="7"/>
     </row>
@@ -3753,7 +3810,7 @@
         <v>131</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D56" s="7"/>
     </row>
@@ -3765,7 +3822,7 @@
         <v>131</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="D57" s="7"/>
     </row>
@@ -3777,7 +3834,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="7"/>
     </row>
@@ -3789,7 +3846,7 @@
         <v>131</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D59" s="7"/>
     </row>
@@ -3801,7 +3858,7 @@
         <v>131</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D60" s="7"/>
     </row>
@@ -3813,7 +3870,7 @@
         <v>131</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D61" s="7"/>
     </row>
@@ -3825,7 +3882,7 @@
         <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D62" s="7"/>
     </row>
@@ -3837,7 +3894,7 @@
         <v>131</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D63" s="7"/>
     </row>
@@ -3849,7 +3906,7 @@
         <v>131</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="7"/>
     </row>
@@ -3861,7 +3918,7 @@
         <v>131</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="D65" s="7"/>
     </row>
@@ -3873,7 +3930,7 @@
         <v>131</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -3885,7 +3942,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="D67" s="7"/>
     </row>
@@ -3897,7 +3954,7 @@
         <v>131</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D68" s="7"/>
     </row>
@@ -3909,7 +3966,7 @@
         <v>131</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D69" s="7"/>
     </row>
@@ -3921,7 +3978,7 @@
         <v>131</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D70" s="7"/>
     </row>
@@ -3933,7 +3990,7 @@
         <v>131</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D71" s="7"/>
     </row>
@@ -3945,31 +4002,31 @@
         <v>131</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="D74" s="7"/>
     </row>
@@ -3981,7 +4038,7 @@
         <v>198</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D75" s="7"/>
     </row>
@@ -3993,7 +4050,7 @@
         <v>198</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D76" s="7"/>
     </row>
@@ -4005,7 +4062,7 @@
         <v>198</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D77" s="7"/>
     </row>
@@ -4017,7 +4074,7 @@
         <v>198</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="D78" s="7"/>
     </row>
@@ -4028,8 +4085,8 @@
       <c r="B79" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="33" t="s">
-        <v>303</v>
+      <c r="C79" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D79" s="7"/>
     </row>
@@ -4041,67 +4098,67 @@
         <v>198</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>216</v>
+        <v>198</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="D85" s="7"/>
     </row>
@@ -4113,7 +4170,7 @@
         <v>193</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="D86" s="7"/>
     </row>
@@ -4125,31 +4182,31 @@
         <v>193</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>293</v>
+        <v>136</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="D89" s="7"/>
     </row>
@@ -4161,7 +4218,7 @@
         <v>196</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D90" s="7"/>
     </row>
@@ -4173,31 +4230,31 @@
         <v>196</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D93" s="7"/>
     </row>
@@ -4209,31 +4266,31 @@
         <v>227</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="D96" s="7"/>
     </row>
@@ -4245,7 +4302,7 @@
         <v>129</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D97" s="7"/>
     </row>
@@ -4257,7 +4314,7 @@
         <v>129</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D98" s="7"/>
     </row>
@@ -4269,31 +4326,31 @@
         <v>129</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="D101" s="7"/>
     </row>
@@ -4305,163 +4362,163 @@
         <v>254</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="D115" s="7"/>
     </row>
@@ -4473,7 +4530,7 @@
         <v>182</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="D116" s="7"/>
     </row>
@@ -4485,7 +4542,7 @@
         <v>182</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="D117" s="7"/>
     </row>
@@ -4497,7 +4554,7 @@
         <v>182</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>89</v>
+        <v>263</v>
       </c>
       <c r="D118" s="7"/>
     </row>
@@ -4509,7 +4566,7 @@
         <v>182</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="D119" s="7"/>
     </row>
@@ -4521,79 +4578,79 @@
         <v>182</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>316</v>
+        <v>157</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>303</v>
+        <v>182</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>188</v>
+        <v>239</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>183</v>
+        <v>265</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="D126" s="7"/>
     </row>
@@ -4605,7 +4662,7 @@
         <v>184</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="D127" s="7"/>
     </row>
@@ -4617,7 +4674,7 @@
         <v>184</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D128" s="7"/>
     </row>
@@ -4629,7 +4686,7 @@
         <v>184</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D129" s="7"/>
     </row>
@@ -4641,7 +4698,7 @@
         <v>184</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="D130" s="7"/>
     </row>
@@ -4653,7 +4710,7 @@
         <v>184</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D131" s="7"/>
     </row>
@@ -4665,7 +4722,7 @@
         <v>184</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D132" s="7"/>
     </row>
@@ -4677,7 +4734,7 @@
         <v>184</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="D133" s="7"/>
     </row>
@@ -4689,7 +4746,7 @@
         <v>184</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="D134" s="7"/>
     </row>
@@ -4701,7 +4758,7 @@
         <v>184</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="D135" s="7"/>
     </row>
@@ -4713,7 +4770,7 @@
         <v>184</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="D136" s="7"/>
     </row>
@@ -4725,136 +4782,136 @@
         <v>184</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>319</v>
+        <v>148</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>109</v>
@@ -4863,73 +4920,73 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="D154" s="7"/>
     </row>
@@ -4941,7 +4998,7 @@
         <v>187</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="D155" s="7"/>
     </row>
@@ -4953,7 +5010,7 @@
         <v>187</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="D156" s="7"/>
     </row>
@@ -4965,7 +5022,7 @@
         <v>187</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>298</v>
+        <v>87</v>
       </c>
       <c r="D157" s="7"/>
     </row>
@@ -4977,163 +5034,163 @@
         <v>187</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D166" s="7"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D171" s="7"/>
     </row>
@@ -5145,7 +5202,7 @@
         <v>221</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D172" s="7"/>
     </row>
@@ -5157,7 +5214,7 @@
         <v>221</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="D173" s="7"/>
     </row>
@@ -5169,7 +5226,7 @@
         <v>221</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="D174" s="7"/>
     </row>
@@ -5181,7 +5238,7 @@
         <v>221</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="D175" s="7"/>
     </row>
@@ -5193,7 +5250,7 @@
         <v>221</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="D176" s="7"/>
     </row>
@@ -5205,139 +5262,139 @@
         <v>221</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C181" s="33" t="s">
-        <v>303</v>
+        <v>221</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>271</v>
+        <v>175</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="D182" s="7"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>85</v>
+        <v>213</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="D185" s="7"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>161</v>
+        <v>271</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D186" s="7"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>91</v>
+        <v>305</v>
       </c>
       <c r="D187" s="7"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D188" s="7"/>
     </row>
@@ -5349,55 +5406,55 @@
         <v>214</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="D190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D191" s="7"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D192" s="7"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="D193" s="7"/>
     </row>
@@ -5409,7 +5466,7 @@
         <v>215</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D194" s="7"/>
     </row>
@@ -5421,7 +5478,7 @@
         <v>215</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D195" s="7"/>
     </row>
@@ -5433,51 +5490,99 @@
         <v>215</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="D196" s="7"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="D198" s="7"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B203" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C203" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D199" s="7"/>
+      <c r="D203" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E199" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E190">
-      <sortCondition ref="A49:A190"/>
-      <sortCondition ref="C49:C190"/>
+  <autoFilter ref="A1:E203" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E194">
+      <sortCondition ref="A50:A194"/>
+      <sortCondition ref="C50:C194"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/_TutosYoutube.xlsx
+++ b/_TutosYoutube.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LRCOM\pythonProjects\dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B5F8AA-D716-4976-A06D-673AB983F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30487594-A1A2-4BA6-8C63-7F124275461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EFF509-1524-4670-A0E1-93BDA04CD0D6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharmingData!$A$1:$D$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Composants!$A$1:$E$226</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="365">
   <si>
     <t>Dash components</t>
   </si>
@@ -1191,6 +1191,87 @@
   </si>
   <si>
     <t>Altair : graphique</t>
+  </si>
+  <si>
+    <t>indexF003_ModalsAlerts</t>
+  </si>
+  <si>
+    <t>Présentation de nouveaux composants avec dbc.Modal() et dbc.Alert() :
+-&gt; Affichage d'une nouvelle fenêtre
+-&gt; Affichage d'un commentaire
+-&gt; Message d'alerte</t>
+  </si>
+  <si>
+    <t>dbc.Modal</t>
+  </si>
+  <si>
+    <t>Nouvelle fenêtre</t>
+  </si>
+  <si>
+    <t>dbc.ModalHeader</t>
+  </si>
+  <si>
+    <t>Nouvelle fenêtre : en-tête</t>
+  </si>
+  <si>
+    <t>dbc.ModalBody</t>
+  </si>
+  <si>
+    <t>Nouvelle fenêtre : corps principal</t>
+  </si>
+  <si>
+    <t>dbc.Form</t>
+  </si>
+  <si>
+    <t>Regroupement de composants</t>
+  </si>
+  <si>
+    <t>dbc.CardGroup</t>
+  </si>
+  <si>
+    <t>Cartes : groupe de composants</t>
+  </si>
+  <si>
+    <t>dbc.ModalFooter</t>
+  </si>
+  <si>
+    <t>Nouvelle fenêtre : pied de page</t>
+  </si>
+  <si>
+    <t>dbc.Alert</t>
+  </si>
+  <si>
+    <t>Message d'alerte</t>
+  </si>
+  <si>
+    <t>dbc.Popover</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>dbc.PopoverBody</t>
+  </si>
+  <si>
+    <t>dbc.PopoverHeader</t>
+  </si>
+  <si>
+    <t>Commentaire : corps principal</t>
+  </si>
+  <si>
+    <t>Commentaire : en-tête</t>
+  </si>
+  <si>
+    <t>dbc.Col</t>
+  </si>
+  <si>
+    <t>Colonnes séparées</t>
+  </si>
+  <si>
+    <t>dbc.Row</t>
+  </si>
+  <si>
+    <t>Lignes séparées</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1765,6 +1846,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1792,28 +1879,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2152,10 +2217,10 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2247,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2196,7 +2261,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -2208,7 +2273,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2285,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2232,7 +2297,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2309,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2256,7 +2321,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2268,7 +2333,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
@@ -2280,7 +2345,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -2292,7 +2357,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -2304,7 +2369,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +2381,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -2328,7 +2393,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2340,7 +2405,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
@@ -2352,7 +2417,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
@@ -2376,7 +2441,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2453,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
@@ -2400,7 +2465,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
@@ -2411,20 +2476,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="46" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43"/>
+      <c r="B21" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="21" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2438,7 +2503,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
@@ -2450,7 +2515,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="8" t="s">
         <v>40</v>
       </c>
@@ -2462,7 +2527,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="8" t="s">
         <v>41</v>
       </c>
@@ -2474,7 +2539,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="8" t="s">
         <v>42</v>
       </c>
@@ -2486,7 +2551,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="8" t="s">
         <v>43</v>
       </c>
@@ -2498,7 +2563,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
@@ -2510,7 +2575,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="8" t="s">
         <v>45</v>
       </c>
@@ -2522,7 +2587,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
@@ -2534,7 +2599,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2548,7 +2613,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
@@ -2560,7 +2625,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
@@ -2572,7 +2637,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -2584,7 +2649,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="8" t="s">
         <v>25</v>
       </c>
@@ -2596,7 +2661,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="8" t="s">
         <v>26</v>
       </c>
@@ -2608,7 +2673,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="8" t="s">
         <v>27</v>
       </c>
@@ -2620,7 +2685,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="8" t="s">
         <v>28</v>
       </c>
@@ -2632,7 +2697,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="12" t="s">
         <v>29</v>
       </c>
@@ -2644,7 +2709,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="36" t="s">
         <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2658,7 +2723,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="8" t="s">
         <v>31</v>
       </c>
@@ -2670,7 +2735,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="8" t="s">
         <v>32</v>
       </c>
@@ -2678,7 +2743,7 @@
       <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="8" t="s">
         <v>33</v>
       </c>
@@ -2686,7 +2751,7 @@
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
@@ -2694,7 +2759,7 @@
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="8" t="s">
         <v>35</v>
       </c>
@@ -2702,7 +2767,7 @@
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2710,7 +2775,7 @@
       <c r="D46" s="20"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="8" t="s">
         <v>37</v>
       </c>
@@ -2718,7 +2783,7 @@
       <c r="D47" s="20"/>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="36"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="12" t="s">
         <v>38</v>
       </c>
@@ -2726,7 +2791,7 @@
       <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2740,7 +2805,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2751,16 +2816,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
+    <row r="51" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="37"/>
       <c r="B51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="8" t="s">
         <v>50</v>
       </c>
@@ -2768,7 +2837,7 @@
       <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
@@ -2776,7 +2845,7 @@
       <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="8" t="s">
         <v>52</v>
       </c>
@@ -2784,7 +2853,7 @@
       <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="8" t="s">
         <v>53</v>
       </c>
@@ -2792,7 +2861,7 @@
       <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
@@ -2800,7 +2869,7 @@
       <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="8" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2879,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="8" t="s">
         <v>55</v>
       </c>
@@ -2818,7 +2887,7 @@
       <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="8" t="s">
         <v>56</v>
       </c>
@@ -2826,7 +2895,7 @@
       <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="8" t="s">
         <v>57</v>
       </c>
@@ -2834,7 +2903,7 @@
       <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="8" t="s">
         <v>58</v>
       </c>
@@ -2842,7 +2911,7 @@
       <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="8" t="s">
         <v>59</v>
       </c>
@@ -2850,7 +2919,7 @@
       <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +2927,7 @@
       <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="36"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="12" t="s">
         <v>61</v>
       </c>
@@ -2866,7 +2935,7 @@
       <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="36" t="s">
         <v>106</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2876,7 +2945,7 @@
       <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="37"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="8" t="s">
         <v>63</v>
       </c>
@@ -2884,7 +2953,7 @@
       <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="37"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="8" t="s">
         <v>64</v>
       </c>
@@ -2892,7 +2961,7 @@
       <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="37"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="8" t="s">
         <v>65</v>
       </c>
@@ -2900,7 +2969,7 @@
       <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="8" t="s">
         <v>66</v>
       </c>
@@ -2908,7 +2977,7 @@
       <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="37"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="8" t="s">
         <v>67</v>
       </c>
@@ -2916,7 +2985,7 @@
       <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="8" t="s">
         <v>68</v>
       </c>
@@ -2924,7 +2993,7 @@
       <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="8" t="s">
         <v>69</v>
       </c>
@@ -2932,7 +3001,7 @@
       <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="42"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="12" t="s">
         <v>70</v>
       </c>
@@ -2940,7 +3009,7 @@
       <c r="D73" s="23"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="34" t="s">
+      <c r="A74" s="36" t="s">
         <v>107</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -2950,7 +3019,7 @@
       <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="8" t="s">
         <v>72</v>
       </c>
@@ -2958,7 +3027,7 @@
       <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="8" t="s">
         <v>73</v>
       </c>
@@ -2966,7 +3035,7 @@
       <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
+      <c r="A77" s="37"/>
       <c r="B77" s="8" t="s">
         <v>74</v>
       </c>
@@ -2974,7 +3043,7 @@
       <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="36"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="12" t="s">
         <v>75</v>
       </c>
@@ -2982,7 +3051,7 @@
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="36" t="s">
         <v>108</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -2992,7 +3061,7 @@
       <c r="D79" s="19"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="37"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="8" t="s">
         <v>77</v>
       </c>
@@ -3000,7 +3069,7 @@
       <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="37"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="8" t="s">
         <v>78</v>
       </c>
@@ -3008,7 +3077,7 @@
       <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="37"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="8" t="s">
         <v>79</v>
       </c>
@@ -3016,7 +3085,7 @@
       <c r="D82" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="8" t="s">
         <v>80</v>
       </c>
@@ -3024,7 +3093,7 @@
       <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="8" t="s">
         <v>81</v>
       </c>
@@ -3032,7 +3101,7 @@
       <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="8" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +3109,7 @@
       <c r="D85" s="20"/>
     </row>
     <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="38"/>
+      <c r="A86" s="40"/>
       <c r="B86" s="10" t="s">
         <v>83</v>
       </c>
@@ -3103,6 +3172,7 @@
     <hyperlink ref="C40" r:id="rId40" xr:uid="{BEFBB206-1F07-4F4C-A86C-30FC42DA8B24}"/>
     <hyperlink ref="C41" r:id="rId41" xr:uid="{426997BC-E1B8-4A68-A7BC-2947D58D16B0}"/>
     <hyperlink ref="C21" r:id="rId42" xr:uid="{98A19162-0A61-4D48-9D68-09B8CB28D350}"/>
+    <hyperlink ref="C51" r:id="rId43" xr:uid="{A1480588-AADF-4FE0-BA43-5FBFBBDFDB98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3110,11 +3180,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3142,10 +3212,10 @@
         <v>205</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>337</v>
       </c>
@@ -3155,9 +3225,9 @@
       <c r="C2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
@@ -3468,13 +3538,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>239</v>
+        <v>354</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="D28" s="7"/>
     </row>
@@ -3486,7 +3556,7 @@
         <v>239</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="D29" s="7"/>
     </row>
@@ -3498,7 +3568,7 @@
         <v>239</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -3510,16 +3580,16 @@
         <v>239</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>319</v>
@@ -3528,22 +3598,22 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>319</v>
@@ -3552,457 +3622,457 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>242</v>
+        <v>323</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>262</v>
+        <v>361</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>329</v>
+        <v>231</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>240</v>
+        <v>347</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>160</v>
+        <v>329</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>131</v>
+        <v>344</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>144</v>
+        <v>339</v>
       </c>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>160</v>
+        <v>358</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>131</v>
+        <v>360</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>160</v>
+        <v>363</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>316</v>
+        <v>135</v>
       </c>
       <c r="D72" s="7"/>
     </row>
@@ -4014,7 +4084,7 @@
         <v>131</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="D73" s="7"/>
     </row>
@@ -4026,364 +4096,364 @@
         <v>131</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>333</v>
+        <v>204</v>
       </c>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>303</v>
+        <v>131</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="D86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>151</v>
+        <v>198</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>293</v>
@@ -4392,742 +4462,742 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>335</v>
+        <v>159</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>333</v>
+        <v>195</v>
       </c>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>314</v>
+        <v>227</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>298</v>
+        <v>140</v>
       </c>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C125" s="32" t="s">
-        <v>303</v>
+        <v>230</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>183</v>
+        <v>335</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>257</v>
+        <v>84</v>
       </c>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>319</v>
+        <v>89</v>
       </c>
       <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>124</v>
+        <v>239</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>303</v>
       </c>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="D145" s="7"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D146" s="7"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>319</v>
+        <v>188</v>
       </c>
       <c r="D147" s="7"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="D149" s="7"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="D150" s="7"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="D151" s="7"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
       <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D164" s="7"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="D165" s="7"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>319</v>
@@ -5136,453 +5206,729 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="D167" s="7"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D169" s="7"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D170" s="7"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D174" s="7"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="D175" s="7"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="D176" s="7"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="D177" s="7"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D178" s="7"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>305</v>
+        <v>87</v>
       </c>
       <c r="D179" s="7"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="D180" s="7"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>316</v>
+        <v>152</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="D182" s="7"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="D183" s="7"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C185" s="32" t="s">
-        <v>303</v>
+        <v>250</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D185" s="7"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D186" s="7"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="D187" s="7"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="D188" s="7"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D189" s="7"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D190" s="7"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D191" s="7"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="D192" s="7"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="D193" s="7"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D194" s="7"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="D195" s="7"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D196" s="7"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D197" s="7"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D198" s="7"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D199" s="7"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="D200" s="7"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D201" s="7"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D202" s="7"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D218" s="7"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D220" s="7"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D221" s="7"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D222" s="7"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D223" s="7"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D224" s="7"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D225" s="7"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B226" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C226" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D203" s="7"/>
+      <c r="D226" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E203" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E194">
-      <sortCondition ref="A50:A194"/>
-      <sortCondition ref="C50:C194"/>
+  <autoFilter ref="A1:E226" xr:uid="{BE5891BC-55A2-4652-A06A-87AE511B559C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E217">
+      <sortCondition ref="A68:A217"/>
+      <sortCondition ref="C68:C217"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
